--- a/design/cards.xlsx
+++ b/design/cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\git\open-card-game\card-design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\git\hexal-ccg\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48877847-76C6-44F6-AAA1-ADCC66CCB1AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9254A2-CA88-4745-AD8A-FA4CB51CA3C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="6216" windowWidth="27312" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="384" yWindow="6324" windowWidth="27312" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cards" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="418">
   <si>
     <t>ID</t>
   </si>
@@ -658,9 +658,6 @@
     <t>Resistance</t>
   </si>
   <si>
-    <t>Enchant a friendly creature. It gains +0 / +1. When the creature is destroyed, return this to your hand.</t>
-  </si>
-  <si>
     <t>Mage Armour</t>
   </si>
   <si>
@@ -1289,6 +1286,9 @@
   </si>
   <si>
     <t>Equip to a friendly creature. After combat with an enemy creature, destroy this and the enemy creature.</t>
+  </si>
+  <si>
+    <t>Enchant a friendly creature. It gains +0 / +1. When the creature is destroyed, you may pay [Any] to return this to your hand.</t>
   </si>
 </sst>
 </file>
@@ -1822,11 +1822,6 @@
   <dxfs count="3">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1861,6 +1856,11 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1879,15 +1879,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4870940</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>28718</xdr:rowOff>
+      <xdr:colOff>4859217</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>46302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>6699740</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>6688017</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>93785</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -1923,7 +1923,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10808678" y="2390918"/>
+              <a:off x="10796955" y="2953625"/>
               <a:ext cx="1828800" cy="1682852"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1957,15 +1957,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>5115364</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>32822</xdr:rowOff>
+      <xdr:colOff>4869179</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>3514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>109610</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>175845</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6697979</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -2001,7 +2001,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11053102" y="214530"/>
+              <a:off x="10806917" y="1457176"/>
               <a:ext cx="1828800" cy="1414977"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2067,16 +2067,16 @@
   <autoFilter ref="A1:I192" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Water"/>
+        <filter val="Fire"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:I192">
     <sortCondition ref="C2:C192" customList="Earth,Fire,Water,Air,Spirit"/>
     <sortCondition ref="D2:D192" customList="Hero,Creature,Spell,Item"/>
-    <sortCondition sortBy="fontColor" ref="F2:F192" dxfId="2"/>
+    <sortCondition sortBy="fontColor" ref="F2:F192" dxfId="1"/>
     <sortCondition ref="F2:F192"/>
-    <sortCondition sortBy="fontColor" ref="E2:E192" dxfId="1"/>
+    <sortCondition sortBy="fontColor" ref="E2:E192" dxfId="0"/>
     <sortCondition ref="E2:E192" customList="Reaction,Enchantment,Equipment,Permanent,Field"/>
     <sortCondition ref="B2:B192"/>
   </sortState>
@@ -2395,7 +2395,7 @@
   <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2629,7 +2629,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2678,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2704,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2747,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -2756,7 +2756,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -2765,7 +2765,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2791,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2799,7 +2799,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -2808,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2834,7 +2834,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2857,7 +2857,7 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2909,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2932,7 +2932,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2958,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -3044,7 +3044,7 @@
         <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -3104,7 +3104,7 @@
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -3127,7 +3127,7 @@
         <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -3135,7 +3135,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -3155,7 +3155,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -3164,10 +3164,10 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I33" t="s">
         <v>373</v>
-      </c>
-      <c r="I33" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -3175,7 +3175,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -3184,10 +3184,10 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -3250,7 +3250,7 @@
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I37" t="s">
         <v>58</v>
@@ -3313,7 +3313,7 @@
         <v>41</v>
       </c>
       <c r="I40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -3376,10 +3376,10 @@
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3505,10 +3505,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3557,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3583,12 +3583,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -3606,10 +3606,10 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -3632,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -3655,7 +3655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -3681,7 +3681,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -3759,7 +3759,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3876,10 +3876,10 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3896,10 +3896,10 @@
         <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3936,10 +3936,10 @@
         <v>75</v>
       </c>
       <c r="I68" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3985,12 +3985,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -4005,15 +4005,15 @@
         <v>75</v>
       </c>
       <c r="I71" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -4028,10 +4028,10 @@
         <v>75</v>
       </c>
       <c r="I72" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4051,12 +4051,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -4065,13 +4065,13 @@
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I74" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4254,10 +4254,10 @@
         <v>72</v>
       </c>
       <c r="I83" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4314,15 +4314,15 @@
         <v>41</v>
       </c>
       <c r="I86" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -4334,13 +4334,13 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I87" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4360,10 +4360,10 @@
         <v>70</v>
       </c>
       <c r="I88" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4380,13 +4380,13 @@
         <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I89" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4492,12 +4492,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C95" t="s">
         <v>121</v>
@@ -4506,7 +4506,7 @@
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -4515,7 +4515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -4541,12 +4541,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C97" t="s">
         <v>121</v>
@@ -4564,10 +4564,10 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -4590,7 +4590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -4616,7 +4616,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -4668,7 +4668,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4691,15 +4691,15 @@
         <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C103" t="s">
         <v>121</v>
@@ -4708,10 +4708,10 @@
         <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4728,12 +4728,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C105" t="s">
         <v>121</v>
@@ -4745,10 +4745,10 @@
         <v>16</v>
       </c>
       <c r="I105" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4805,15 +4805,15 @@
         <v>20</v>
       </c>
       <c r="I108" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C109" t="s">
         <v>121</v>
@@ -4822,18 +4822,18 @@
         <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I109" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C110" t="s">
         <v>121</v>
@@ -4845,18 +4845,18 @@
         <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I110" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C111" t="s">
         <v>121</v>
@@ -4868,10 +4868,10 @@
         <v>137</v>
       </c>
       <c r="I111" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4894,12 +4894,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C113" t="s">
         <v>121</v>
@@ -4914,10 +4914,10 @@
         <v>137</v>
       </c>
       <c r="I113" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4937,10 +4937,10 @@
         <v>137</v>
       </c>
       <c r="I114" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4963,12 +4963,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C116" t="s">
         <v>121</v>
@@ -4980,10 +4980,10 @@
         <v>31</v>
       </c>
       <c r="I116" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5063,12 +5063,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C121" t="s">
         <v>121</v>
@@ -5080,15 +5080,15 @@
         <v>137</v>
       </c>
       <c r="I121" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C122" t="s">
         <v>121</v>
@@ -5100,15 +5100,15 @@
         <v>128</v>
       </c>
       <c r="I122" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C123" t="s">
         <v>121</v>
@@ -5123,15 +5123,15 @@
         <v>128</v>
       </c>
       <c r="I123" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C124" t="s">
         <v>121</v>
@@ -5149,7 +5149,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5169,12 +5169,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C126" t="s">
         <v>121</v>
@@ -5186,10 +5186,10 @@
         <v>130</v>
       </c>
       <c r="I126" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5206,18 +5206,18 @@
         <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I127" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C128" t="s">
         <v>121</v>
@@ -5229,18 +5229,18 @@
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I128" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C129" t="s">
         <v>121</v>
@@ -5252,15 +5252,15 @@
         <v>137</v>
       </c>
       <c r="I129" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C130" t="s">
         <v>121</v>
@@ -5272,7 +5272,7 @@
         <v>128</v>
       </c>
       <c r="I130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5280,19 +5280,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C131" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D131" t="s">
         <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I131" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5300,19 +5300,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C132" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D132" t="s">
         <v>44</v>
       </c>
       <c r="F132" t="s">
+        <v>241</v>
+      </c>
+      <c r="I132" t="s">
         <v>242</v>
-      </c>
-      <c r="I132" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5320,10 +5320,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D133" t="s">
         <v>11</v>
@@ -5340,10 +5340,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D134" t="s">
         <v>11</v>
@@ -5355,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5363,10 +5363,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D135" t="s">
         <v>11</v>
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5386,16 +5386,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D136" t="s">
         <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -5404,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5412,16 +5412,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D137" t="s">
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -5430,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5438,16 +5438,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D138" t="s">
         <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -5461,16 +5461,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D139" t="s">
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -5479,7 +5479,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5487,16 +5487,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C140" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -5505,7 +5505,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5513,16 +5513,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -5531,7 +5531,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5539,16 +5539,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C142" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D142" t="s">
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -5557,7 +5557,7 @@
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5565,16 +5565,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C143" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D143" t="s">
         <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -5583,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="I143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5591,16 +5591,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
+        <v>261</v>
+      </c>
+      <c r="C144" t="s">
+        <v>239</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" t="s">
         <v>262</v>
-      </c>
-      <c r="C144" t="s">
-        <v>240</v>
-      </c>
-      <c r="D144" t="s">
-        <v>15</v>
-      </c>
-      <c r="I144" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5608,10 +5608,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
@@ -5620,7 +5620,7 @@
         <v>16</v>
       </c>
       <c r="I145" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5628,10 +5628,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
@@ -5640,7 +5640,7 @@
         <v>16</v>
       </c>
       <c r="I146" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5648,10 +5648,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C147" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
@@ -5660,7 +5660,7 @@
         <v>16</v>
       </c>
       <c r="I147" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5668,10 +5668,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C148" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
@@ -5680,7 +5680,7 @@
         <v>47</v>
       </c>
       <c r="I148" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5688,10 +5688,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
@@ -5700,7 +5700,7 @@
         <v>31</v>
       </c>
       <c r="I149" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5708,19 +5708,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
+        <v>266</v>
+      </c>
+      <c r="C150" t="s">
+        <v>239</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>249</v>
+      </c>
+      <c r="I150" t="s">
         <v>267</v>
-      </c>
-      <c r="C150" t="s">
-        <v>240</v>
-      </c>
-      <c r="D150" t="s">
-        <v>15</v>
-      </c>
-      <c r="F150" t="s">
-        <v>250</v>
-      </c>
-      <c r="I150" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5728,16 +5728,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C151" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5745,10 +5745,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C152" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
@@ -5757,10 +5757,10 @@
         <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I152" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5768,10 +5768,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C153" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
@@ -5780,7 +5780,7 @@
         <v>20</v>
       </c>
       <c r="I153" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5788,10 +5788,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
@@ -5800,7 +5800,7 @@
         <v>47</v>
       </c>
       <c r="I154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5808,10 +5808,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
@@ -5820,10 +5820,10 @@
         <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I155" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5831,10 +5831,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C156" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
@@ -5846,7 +5846,7 @@
         <v>17</v>
       </c>
       <c r="I156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5854,10 +5854,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
@@ -5866,10 +5866,10 @@
         <v>16</v>
       </c>
       <c r="F157" t="s">
+        <v>360</v>
+      </c>
+      <c r="I157" t="s">
         <v>361</v>
-      </c>
-      <c r="I157" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5877,19 +5877,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
+        <v>263</v>
+      </c>
+      <c r="C158" t="s">
+        <v>239</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" t="s">
+        <v>255</v>
+      </c>
+      <c r="I158" t="s">
         <v>264</v>
-      </c>
-      <c r="C158" t="s">
-        <v>240</v>
-      </c>
-      <c r="D158" t="s">
-        <v>15</v>
-      </c>
-      <c r="F158" t="s">
-        <v>256</v>
-      </c>
-      <c r="I158" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5897,19 +5897,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
+        <v>268</v>
+      </c>
+      <c r="C159" t="s">
+        <v>239</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" t="s">
+        <v>255</v>
+      </c>
+      <c r="I159" t="s">
         <v>269</v>
-      </c>
-      <c r="C159" t="s">
-        <v>240</v>
-      </c>
-      <c r="D159" t="s">
-        <v>15</v>
-      </c>
-      <c r="F159" t="s">
-        <v>256</v>
-      </c>
-      <c r="I159" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5917,10 +5917,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C160" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
@@ -5929,10 +5929,10 @@
         <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I160" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5940,10 +5940,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
@@ -5952,10 +5952,10 @@
         <v>47</v>
       </c>
       <c r="F161" t="s">
+        <v>364</v>
+      </c>
+      <c r="I161" t="s">
         <v>365</v>
-      </c>
-      <c r="I161" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5963,10 +5963,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C162" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
@@ -5975,10 +5975,10 @@
         <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I162" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -5986,16 +5986,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C163" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D163" t="s">
         <v>27</v>
       </c>
       <c r="I163" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6003,16 +6003,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C164" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D164" t="s">
         <v>27</v>
       </c>
       <c r="I164" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6020,16 +6020,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C165" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D165" t="s">
         <v>27</v>
       </c>
       <c r="I165" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6037,10 +6037,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C166" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D166" t="s">
         <v>27</v>
@@ -6054,19 +6054,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C167" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D167" t="s">
         <v>44</v>
       </c>
       <c r="F167" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I167" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6074,10 +6074,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C168" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -6094,14 +6094,17 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C169" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
       </c>
+      <c r="F169" t="s">
+        <v>393</v>
+      </c>
       <c r="G169">
         <v>1</v>
       </c>
@@ -6109,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6117,10 +6120,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
+        <v>295</v>
+      </c>
+      <c r="C170" t="s">
         <v>296</v>
-      </c>
-      <c r="C170" t="s">
-        <v>297</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -6132,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6140,16 +6143,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C171" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -6158,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6166,10 +6169,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C172" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
@@ -6181,7 +6184,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6189,16 +6192,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C173" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -6207,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6215,16 +6218,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C174" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -6233,7 +6236,7 @@
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6241,16 +6244,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C175" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G175">
         <v>4</v>
@@ -6259,7 +6262,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6267,16 +6270,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
+        <v>325</v>
+      </c>
+      <c r="C176" t="s">
+        <v>296</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="I176" t="s">
         <v>326</v>
-      </c>
-      <c r="C176" t="s">
-        <v>297</v>
-      </c>
-      <c r="D176" t="s">
-        <v>15</v>
-      </c>
-      <c r="I176" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6284,16 +6287,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
+        <v>310</v>
+      </c>
+      <c r="C177" t="s">
+        <v>296</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" t="s">
         <v>311</v>
-      </c>
-      <c r="C177" t="s">
-        <v>297</v>
-      </c>
-      <c r="D177" t="s">
-        <v>15</v>
-      </c>
-      <c r="I177" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6301,16 +6304,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
+        <v>313</v>
+      </c>
+      <c r="C178" t="s">
+        <v>296</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="I178" t="s">
         <v>314</v>
-      </c>
-      <c r="C178" t="s">
-        <v>297</v>
-      </c>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="I178" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6318,16 +6321,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C179" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6335,10 +6338,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D180" t="s">
         <v>15</v>
@@ -6347,10 +6350,10 @@
         <v>47</v>
       </c>
       <c r="F180" t="s">
+        <v>390</v>
+      </c>
+      <c r="I180" t="s">
         <v>391</v>
-      </c>
-      <c r="I180" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6358,19 +6361,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
+        <v>319</v>
+      </c>
+      <c r="C181" t="s">
+        <v>296</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="s">
+        <v>298</v>
+      </c>
+      <c r="I181" t="s">
         <v>320</v>
-      </c>
-      <c r="C181" t="s">
-        <v>297</v>
-      </c>
-      <c r="D181" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" t="s">
-        <v>299</v>
-      </c>
-      <c r="I181" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6378,19 +6381,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
+        <v>331</v>
+      </c>
+      <c r="C182" t="s">
+        <v>296</v>
+      </c>
+      <c r="D182" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" t="s">
+        <v>393</v>
+      </c>
+      <c r="I182" t="s">
         <v>332</v>
-      </c>
-      <c r="C182" t="s">
-        <v>297</v>
-      </c>
-      <c r="D182" t="s">
-        <v>15</v>
-      </c>
-      <c r="F182" t="s">
-        <v>394</v>
-      </c>
-      <c r="I182" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6398,19 +6401,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
+        <v>315</v>
+      </c>
+      <c r="C183" t="s">
+        <v>296</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" t="s">
+        <v>298</v>
+      </c>
+      <c r="I183" t="s">
         <v>316</v>
-      </c>
-      <c r="C183" t="s">
-        <v>297</v>
-      </c>
-      <c r="D183" t="s">
-        <v>15</v>
-      </c>
-      <c r="F183" t="s">
-        <v>299</v>
-      </c>
-      <c r="I183" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6418,10 +6421,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C184" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
@@ -6430,10 +6433,10 @@
         <v>16</v>
       </c>
       <c r="F184" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I184" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6441,10 +6444,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C185" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
@@ -6453,10 +6456,10 @@
         <v>20</v>
       </c>
       <c r="F185" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I185" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6464,10 +6467,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C186" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
@@ -6476,7 +6479,7 @@
         <v>47</v>
       </c>
       <c r="I186" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6484,10 +6487,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C187" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
@@ -6496,10 +6499,10 @@
         <v>16</v>
       </c>
       <c r="F187" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I187" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6507,10 +6510,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C188" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
@@ -6519,10 +6522,10 @@
         <v>47</v>
       </c>
       <c r="F188" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I188" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6530,10 +6533,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C189" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
@@ -6542,10 +6545,10 @@
         <v>20</v>
       </c>
       <c r="F189" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I189" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6553,19 +6556,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C190" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
       </c>
       <c r="F190" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I190" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6573,19 +6576,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C191" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
       </c>
       <c r="F191" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I191" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -6593,10 +6596,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C192" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D192" t="s">
         <v>27</v>
@@ -6605,12 +6608,12 @@
         <v>41</v>
       </c>
       <c r="I192" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/design/cards.xlsx
+++ b/design/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\git\hexal-ccg\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9254A2-CA88-4745-AD8A-FA4CB51CA3C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7096DB84-6DB9-4134-A886-EAF70AEF92D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="384" yWindow="6324" windowWidth="27312" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="468" windowWidth="30588" windowHeight="19836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cards" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="516">
   <si>
     <t>ID</t>
   </si>
@@ -91,9 +91,6 @@
     <t>1e</t>
   </si>
   <si>
-    <t>Cast when a friendly creature is attacked. Give it +0 / +4 until the end of turn.</t>
-  </si>
-  <si>
     <t>Contact Poison</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>Equipment</t>
   </si>
   <si>
-    <t>Equip to a friendly creature. Equipped creature gains +1 / +0. When equipped creature is destroyed, summon this as a 1 / 1 [Earth] Living Spear creature.</t>
-  </si>
-  <si>
     <t>Hivequeen Ngaat</t>
   </si>
   <si>
@@ -190,36 +184,21 @@
     <t>Savagery</t>
   </si>
   <si>
-    <t>Cast when you declare a counterattack. Give your creatures +2 / +0 until end of turn.</t>
-  </si>
-  <si>
     <t>Earthen Reclamation</t>
   </si>
   <si>
-    <t>If you control an [Earth] creature, destroy a creature.</t>
-  </si>
-  <si>
     <t>Ironskin Runes</t>
   </si>
   <si>
     <t>Earth Spiritsinger</t>
   </si>
   <si>
-    <t>Whenever you summon an [Earth] creature, draw a card.</t>
-  </si>
-  <si>
     <t>Sprite's Blessing</t>
   </si>
   <si>
-    <t>Enchant a creature. It gains +2 / +2. Search your deck for any "sprite" cards. Reveal and draw them all.</t>
-  </si>
-  <si>
     <t>Mana Sapper</t>
   </si>
   <si>
-    <t>When this creature damages an opponent, exile the top card of their mana pool, and if you do draw a card.</t>
-  </si>
-  <si>
     <t>Evolving Shrub</t>
   </si>
   <si>
@@ -277,9 +256,6 @@
     <t>Magma Wyrm</t>
   </si>
   <si>
-    <t>At the start of your turn, burn a card.</t>
-  </si>
-  <si>
     <t>Untamed Fire Spirit</t>
   </si>
   <si>
@@ -292,9 +268,6 @@
     <t>Reckless Stallion</t>
   </si>
   <si>
-    <t>Can attack the same turn it enters the battlefield.</t>
-  </si>
-  <si>
     <t>Heat Wave</t>
   </si>
   <si>
@@ -331,24 +304,15 @@
     <t>Ember Sprite</t>
   </si>
   <si>
-    <t>After you burn a card, you may switch it with this card from your hand.</t>
-  </si>
-  <si>
     <t>Immolate</t>
   </si>
   <si>
-    <t>Cast at any time. If you control a [Fire] creature, deal 5 damage to a creature.</t>
-  </si>
-  <si>
     <t>Fire Warlock</t>
   </si>
   <si>
     <t>3f</t>
   </si>
   <si>
-    <t>Whenever you play a card, burn a card.</t>
-  </si>
-  <si>
     <t>Pyromancer</t>
   </si>
   <si>
@@ -367,24 +331,15 @@
     <t>Hot Ash</t>
   </si>
   <si>
-    <t>You may channel this from your hand. When paying for a [Fire] creature, this provides 2 [Fire].</t>
-  </si>
-  <si>
     <t>Serpent of the Forge</t>
   </si>
   <si>
     <t>Electric Shock</t>
   </si>
   <si>
-    <t>Cast at any time. Deal 1 damage to a creature. It cannot attack or counterattack until end of turn.</t>
-  </si>
-  <si>
     <t>Fire Crystal</t>
   </si>
   <si>
-    <t>Destroy a friendly creature, and if you do, destroy an enemy creature.</t>
-  </si>
-  <si>
     <t>Acceleration Runes</t>
   </si>
   <si>
@@ -409,18 +364,12 @@
     <t>Lissa, Spirit of the Fountain</t>
   </si>
   <si>
-    <t>At the start of your turn, restore 2 health to yourself.</t>
-  </si>
-  <si>
     <t>Slime</t>
   </si>
   <si>
     <t>Freeze</t>
   </si>
   <si>
-    <t>Enchant a creature. Set its attack to 0. At the start of your turn destroy this, unless a [Water] field spell is active.</t>
-  </si>
-  <si>
     <t>2w</t>
   </si>
   <si>
@@ -430,9 +379,6 @@
     <t>3w</t>
   </si>
   <si>
-    <t>Whenever a friendly creature survives an attack, restore 1 health to it.</t>
-  </si>
-  <si>
     <t>Arcane Defender</t>
   </si>
   <si>
@@ -475,15 +421,9 @@
     <t>Lesser Healing</t>
   </si>
   <si>
-    <t>Restore 3 health to yourself.</t>
-  </si>
-  <si>
     <t>Greater Healing</t>
   </si>
   <si>
-    <t>Restore 5 health to yourself.</t>
-  </si>
-  <si>
     <t>Snowstorm</t>
   </si>
   <si>
@@ -544,24 +484,12 @@
     <t>Protector of the Forest</t>
   </si>
   <si>
-    <t>Your [Earth] creatures have their costs reduced by [Earth].</t>
-  </si>
-  <si>
     <t>Blighted Druid</t>
   </si>
   <si>
     <t>Sage Brennas</t>
   </si>
   <si>
-    <t>Whenever you draw a card, you may instead search your deck for a card of your choice. Do not reveal it.</t>
-  </si>
-  <si>
-    <t>When this is destroyed by combat damage, search your deck for an [Earth] card.</t>
-  </si>
-  <si>
-    <t>Search your deck for an [Earth] enchantment. The next [Earth] enchantment you play this turn costs [Earth] less.</t>
-  </si>
-  <si>
     <t>Phial of Blight</t>
   </si>
   <si>
@@ -583,27 +511,15 @@
     <t>Alchemist's Fire</t>
   </si>
   <si>
-    <t>Deal 2 damage to an enemy creature. If that destroys it, burn a card.</t>
-  </si>
-  <si>
     <t>Magician's Blade</t>
   </si>
   <si>
     <t>Erastas, The Phoenix</t>
   </si>
   <si>
-    <t>When this enters the battlefield, and at the start of your turn, burn a card. If it is a [Fire] creature, summon it.</t>
-  </si>
-  <si>
-    <t>Your [Fire] creatures have +1 / +0. When a friendly [Fire] creature is destroyed (except tokens), summon it as a 0 / 1 [Fire] Phoenix Wisp token.</t>
-  </si>
-  <si>
     <t>Phoenix Feather</t>
   </si>
   <si>
-    <t>Cast at any time. Deal 2 damage to a creature.</t>
-  </si>
-  <si>
     <t>Kindle</t>
   </si>
   <si>
@@ -613,33 +529,18 @@
     <t>Blood Sacrifice</t>
   </si>
   <si>
-    <t>Burn 2 cards.</t>
-  </si>
-  <si>
     <t>Summon</t>
   </si>
   <si>
-    <t>Burn a card. If it's a [Fire] creature, summon it.</t>
-  </si>
-  <si>
     <t>Greater Summon</t>
   </si>
   <si>
-    <t>Burn 2 cards. Summon any [Fire] creatures.</t>
-  </si>
-  <si>
-    <t>At the start of your turn, if you control a [Fire] creature, destroy a friendly [Fire] creature and this. If you do, burn 3 cards. Summon any [Fire] creatures burned.</t>
-  </si>
-  <si>
     <t>The next [Earth] creature you play this turn costs [Earth] less.</t>
   </si>
   <si>
     <t>Draw a card.</t>
   </si>
   <si>
-    <t>Burn a card.</t>
-  </si>
-  <si>
     <t>Deal 1 damage to a creature.</t>
   </si>
   <si>
@@ -649,21 +550,12 @@
     <t>Destroy a damaged creature.</t>
   </si>
   <si>
-    <t>Search your mana pool for a [Water] card.</t>
-  </si>
-  <si>
-    <t>All creatures have -2 / -0. At the start of your turn destroy this, search your deck for a [Water] field spell, and put it into play.</t>
-  </si>
-  <si>
     <t>Resistance</t>
   </si>
   <si>
     <t>Mage Armour</t>
   </si>
   <si>
-    <t>When you take damage, instead take 0 damage and destroy this.</t>
-  </si>
-  <si>
     <t>Counterspell</t>
   </si>
   <si>
@@ -682,9 +574,6 @@
     <t>Liquefy</t>
   </si>
   <si>
-    <t>Destroy a creature.</t>
-  </si>
-  <si>
     <t>Void</t>
   </si>
   <si>
@@ -694,18 +583,12 @@
     <t>Minor Healing</t>
   </si>
   <si>
-    <t>Restore 1 health to yourself.</t>
-  </si>
-  <si>
     <t>Witch's Hat</t>
   </si>
   <si>
     <t>Holy Water</t>
   </si>
   <si>
-    <t>Deal 2 damage to an enemy creature. Restore 2 health to yourself.</t>
-  </si>
-  <si>
     <t>Lissa's Tear</t>
   </si>
   <si>
@@ -718,12 +601,6 @@
     <t>Enchant a creature. It gains "cannot attack or counterattack".</t>
   </si>
   <si>
-    <t>Search your deck for "Novhu, The Kraken".</t>
-  </si>
-  <si>
-    <t>Enchant a creature. It gains "can attack enemy creatures the same turn this enters the battlefield".</t>
-  </si>
-  <si>
     <t>Equip to a friendly creature. It gains "your spells cost [Water] less".</t>
   </si>
   <si>
@@ -733,12 +610,6 @@
     <t>Equip to a friendly creature. Equipped creature gains +1 / +1 and "cannot be targeted by spells".</t>
   </si>
   <si>
-    <t>Equip to a friendly creature. Equipped creature gains +1 / +1 and "when this creature is destroyed, resummon it". When this item is destroyed, search your deck for "Erastas, The Phoenix".</t>
-  </si>
-  <si>
-    <t>Summon a [Water] creature with cost 2 [Water] or less from your mana pool. Search your deck for "Lissa, Spirit of the Fountain".</t>
-  </si>
-  <si>
     <t>Ray of Frost</t>
   </si>
   <si>
@@ -814,9 +685,6 @@
     <t>Air Elemental</t>
   </si>
   <si>
-    <t>3a</t>
-  </si>
-  <si>
     <t>Pegasus</t>
   </si>
   <si>
@@ -850,15 +718,9 @@
     <t>Negate Magic</t>
   </si>
   <si>
-    <t>Counter the next spell cast, then destroy this.</t>
-  </si>
-  <si>
     <t>Warding Runes</t>
   </si>
   <si>
-    <t>Creatures cost [Real] more. At the start of your turn, destroy this.</t>
-  </si>
-  <si>
     <t>Sealing Sigil</t>
   </si>
   <si>
@@ -871,39 +733,24 @@
     <t>Hurricane</t>
   </si>
   <si>
-    <t>All [Air] creatures cost [Air] less.</t>
-  </si>
-  <si>
     <t>Force Bindings</t>
   </si>
   <si>
     <t>Become Ethereal</t>
   </si>
   <si>
-    <t>Enchant a creature. It gains "cannot attack or be targeted by attacks".</t>
-  </si>
-  <si>
     <t>Planar Redirection</t>
   </si>
   <si>
-    <t>Cast when your opponent casts a spell. Channel [Any] equal to the spell's cost, and if you do, counter it.</t>
-  </si>
-  <si>
     <t>Cast when your opponent plays a creature. Exile it.</t>
   </si>
   <si>
     <t>Quicken Spell</t>
   </si>
   <si>
-    <t>You may immediately cast a spell as though it had "Reaction" as a reaction to this, regardless of its type.</t>
-  </si>
-  <si>
     <t>Draught of the Storm Caller</t>
   </si>
   <si>
-    <t>Search your deck for an [Air] card.</t>
-  </si>
-  <si>
     <t>Air Talisman</t>
   </si>
   <si>
@@ -919,9 +766,6 @@
     <t>Deal 1 damage to all creatures.</t>
   </si>
   <si>
-    <t>Your spells cost [Any] less.</t>
-  </si>
-  <si>
     <t>Spirit Sprite</t>
   </si>
   <si>
@@ -934,9 +778,6 @@
     <t>1s</t>
   </si>
   <si>
-    <t>Search your deck for a [Spirit] card.</t>
-  </si>
-  <si>
     <t>Psychic Kitten</t>
   </si>
   <si>
@@ -1003,9 +844,6 @@
     <t>Sleep</t>
   </si>
   <si>
-    <t>Creatures cannot attack. When a creature is summoned, destroy this.</t>
-  </si>
-  <si>
     <t>Hold Person</t>
   </si>
   <si>
@@ -1015,9 +853,6 @@
     <t>Locate Object</t>
   </si>
   <si>
-    <t>Search your deck for an item.</t>
-  </si>
-  <si>
     <t>Mind Spike</t>
   </si>
   <si>
@@ -1054,9 +889,6 @@
     <t>Prophet Valeriya</t>
   </si>
   <si>
-    <t>Your opponent plays with their hand revealed. They can't play reaction spells.</t>
-  </si>
-  <si>
     <t>Spirit Blade</t>
   </si>
   <si>
@@ -1069,9 +901,6 @@
     <t>Born From Ash</t>
   </si>
   <si>
-    <t>Reveal the top 3 cards of your deck. Select up to 1 [Fire] creature and summon it. Select up to 1 card and draw it. Burn the remainder.</t>
-  </si>
-  <si>
     <t>Blaze</t>
   </si>
   <si>
@@ -1111,15 +940,9 @@
     <t>1f,1e</t>
   </si>
   <si>
-    <t>1f,1w</t>
-  </si>
-  <si>
     <t>Detonate</t>
   </si>
   <si>
-    <t>1f,1a</t>
-  </si>
-  <si>
     <t>Destroy a creature. No creatures can attack until the start of your next turn.</t>
   </si>
   <si>
@@ -1129,9 +952,6 @@
     <t>Updraught</t>
   </si>
   <si>
-    <t>2f,1a</t>
-  </si>
-  <si>
     <t>Your [Air] creatures have +1 / +0.</t>
   </si>
   <si>
@@ -1153,18 +973,9 @@
     <t>Pollinate</t>
   </si>
   <si>
-    <t>1e,1w</t>
-  </si>
-  <si>
-    <t>Search your deck for all copies of [Earth] creatures you control.</t>
-  </si>
-  <si>
     <t>Absorb Life</t>
   </si>
   <si>
-    <t>Destroy all friendly [Earth] creatures. Restore health to yourself equal to the total health of creatures destroyed. Draw 2 cards.</t>
-  </si>
-  <si>
     <t>Sandstorm</t>
   </si>
   <si>
@@ -1174,9 +985,6 @@
     <t>Sand Elemental</t>
   </si>
   <si>
-    <t>1e,1a</t>
-  </si>
-  <si>
     <t>Destroy the active field spell.</t>
   </si>
   <si>
@@ -1201,12 +1009,6 @@
     <t>1e,1r</t>
   </si>
   <si>
-    <t>When you play a card that costs at least 1 [Spirit], you may summon this from your hand.</t>
-  </si>
-  <si>
-    <t>When you play this you may pay [Spirit] to search your deck for a Hero.</t>
-  </si>
-  <si>
     <t>1s,2r</t>
   </si>
   <si>
@@ -1222,27 +1024,15 @@
     <t>1s,1r</t>
   </si>
   <si>
-    <t>Channel X [Spirit]. Equip to a friendly creature. It gains +X / +0.</t>
-  </si>
-  <si>
-    <t>If you have 3 or more [Air] in your mana pool, this costs 2 [Air] less.</t>
-  </si>
-  <si>
     <t>Field spells cost [Any] more.</t>
   </si>
   <si>
     <t>Cards added to either player's mana pool are exiled instead.</t>
   </si>
   <si>
-    <t>Spells cost 2 [Any] more.</t>
-  </si>
-  <si>
     <t>Kind Mermaid</t>
   </si>
   <si>
-    <t>When this is destroyed, summon a 0 cost creature of your choice from your exile pile.</t>
-  </si>
-  <si>
     <t>1w,1r</t>
   </si>
   <si>
@@ -1252,30 +1042,15 @@
     <t>Destroy a creature with 2 or less attack.</t>
   </si>
   <si>
-    <t>When you would die, destroy this, and if you do, you cannot die until the end of your next turn.</t>
-  </si>
-  <si>
     <t>2r</t>
   </si>
   <si>
     <t>2f,1r</t>
   </si>
   <si>
-    <t>Burn 1 card and draw 1 card.</t>
-  </si>
-  <si>
-    <t>Draw until you have 7 cards in hand, then burn the rest of your deck. You cannot draw or burn cards.</t>
-  </si>
-  <si>
-    <t>Cast at any time. Deal 1 damage to a creature and draw a card.</t>
-  </si>
-  <si>
     <t>1f,1r</t>
   </si>
   <si>
-    <t>When this is destroyed by combat damage, search your deck for a [Fire] card.</t>
-  </si>
-  <si>
     <t>2e,1r</t>
   </si>
   <si>
@@ -1288,7 +1063,526 @@
     <t>Equip to a friendly creature. After combat with an enemy creature, destroy this and the enemy creature.</t>
   </si>
   <si>
-    <t>Enchant a friendly creature. It gains +0 / +1. When the creature is destroyed, you may pay [Any] to return this to your hand.</t>
+    <t>When this creature damages an opponent, exile the top card of their mana pool to draw a card.</t>
+  </si>
+  <si>
+    <t>Your [Earth] creatures cost [Earth] less.</t>
+  </si>
+  <si>
+    <t>Cast when a friendly creature is attacked. Give it +0 / +4 until the end of this turn.</t>
+  </si>
+  <si>
+    <t>Cast when you declare a counterattack. Give your creatures +2 / +0 until the end of this turn.</t>
+  </si>
+  <si>
+    <t>1a,1r</t>
+  </si>
+  <si>
+    <t>Equip to a friendly creature. Equipped creature gains +1 / +0. When equipped creature is destroyed, summon a 1 / 1 [Earth] Living Spear creature token.</t>
+  </si>
+  <si>
+    <t>Reveal the top 3 cards of your deck. Select up to 1 [Fire] creature and summon it. Select up to 1 card and draw it. &lt;Burn&gt; any remaining cards.</t>
+  </si>
+  <si>
+    <t>After you &lt;burn&gt; a card, you may switch it with this card from your hand.</t>
+  </si>
+  <si>
+    <t>Destroy a friendly creature to destroy an enemy creature.</t>
+  </si>
+  <si>
+    <t>You may channel this from your hand. When paying for a [Fire] creature, this provides [Fire][Fire].</t>
+  </si>
+  <si>
+    <t>Equip to a friendly creature. Equipped creature gains +1 / +1 and "when this creature is destroyed, resummon it". When this item is destroyed, &lt;search&gt; your deck for "Erastas, The Phoenix".</t>
+  </si>
+  <si>
+    <t>When this is destroyed, summon a 0 cost [Water] creature from your exile pile.</t>
+  </si>
+  <si>
+    <t>At the start of your turn, &lt;heal&gt; 2.</t>
+  </si>
+  <si>
+    <t>&lt;Heal&gt; 3.</t>
+  </si>
+  <si>
+    <t>&lt;Heal&gt; 1.</t>
+  </si>
+  <si>
+    <t>At the end of your attack phase, restore all friendly creatures to full health.</t>
+  </si>
+  <si>
+    <t>When you would take damage, destroy this to take 0 damage instead.</t>
+  </si>
+  <si>
+    <t>When you would die, destroy this to gain "you cannot die until the end of your next turn".</t>
+  </si>
+  <si>
+    <t>&lt;Heal&gt; 5.</t>
+  </si>
+  <si>
+    <t>1w,2r</t>
+  </si>
+  <si>
+    <t>You may immediately cast a spell as though it had "Reaction" on top of this.</t>
+  </si>
+  <si>
+    <t>2a,2r</t>
+  </si>
+  <si>
+    <t>If you've played an [Air] spell this turn, this costs [Air] less.</t>
+  </si>
+  <si>
+    <t>Cast when your opponent casts a spell. Channel [Any] equal to the spell's converted mana cost to counter it.</t>
+  </si>
+  <si>
+    <t>When a spell is cast, destroy this to counter it.</t>
+  </si>
+  <si>
+    <t>Creatures cost [Any] more. At the start of your turn, destroy this.</t>
+  </si>
+  <si>
+    <t>Creatures cost [Air] less.</t>
+  </si>
+  <si>
+    <t>2a,1r</t>
+  </si>
+  <si>
+    <t>Your opponent plays with their hand revealed. At the start of your turn, view the top card of your deck then replace it on either the top or bottom of your deck.</t>
+  </si>
+  <si>
+    <t>2s,1r</t>
+  </si>
+  <si>
+    <t>Deal 2 damage to a creature.</t>
+  </si>
+  <si>
+    <t>Deal 1 damage to a creature. It cannot attack or counterattack until end of turn.</t>
+  </si>
+  <si>
+    <t>If you control a [Fire] creature, deal 5 damage to a creature.</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>[Earth] creatures take no damage from spells.</t>
+  </si>
+  <si>
+    <t>If you control an [Earth] creature, destroy a permanent.</t>
+  </si>
+  <si>
+    <t>Destroy all spells.</t>
+  </si>
+  <si>
+    <t>Reforestation</t>
+  </si>
+  <si>
+    <t>Photosynthesis</t>
+  </si>
+  <si>
+    <t>&lt;Heal&gt; 1 for each [Earth] creature you control.</t>
+  </si>
+  <si>
+    <t>Grasping Vine</t>
+  </si>
+  <si>
+    <t>Select an item equipped to an enemy creature. Take control of it and equip it to a friendly creature.</t>
+  </si>
+  <si>
+    <t>3e</t>
+  </si>
+  <si>
+    <t>Translocate Cows</t>
+  </si>
+  <si>
+    <t>Summon 2 1 / 1 [Earth] Cow creature tokens.</t>
+  </si>
+  <si>
+    <t>Twilight Fortification</t>
+  </si>
+  <si>
+    <t>Your creatures have +0 / +2.</t>
+  </si>
+  <si>
+    <t>Whenever you draw an [Earth] card, you may reveal it to &lt;heal&gt; 1.</t>
+  </si>
+  <si>
+    <t>Staff of The Sage</t>
+  </si>
+  <si>
+    <t>Sanguine Rose</t>
+  </si>
+  <si>
+    <t>Equip to a friendly creature. It gains +2 / +1 and &lt;ranged&gt;.</t>
+  </si>
+  <si>
+    <t>Whenever you draw a card, you may instead &lt;search&gt; for a card. Do not reveal it.</t>
+  </si>
+  <si>
+    <t>When this is destroyed by combat damage, &lt;search&gt; for an [Earth] card.</t>
+  </si>
+  <si>
+    <t>Whenever you summon an [Earth] creature, &lt;search&gt; for an [Earth] spell.</t>
+  </si>
+  <si>
+    <t>Enchant a creature. It gains +2 / +2. &lt;Search&gt; for all "sprite" creatures.</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt; for copies of [Earth] creatures you control.</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt; for an [Earth] enchantment. The next [Earth] enchantment you play this turn costs [Earth] less.</t>
+  </si>
+  <si>
+    <t>When this enters the battlefield, and at the start of your turn, &lt;burn&gt; 1. If it is a [Fire] creature, summon it.</t>
+  </si>
+  <si>
+    <t>At the start of your turn, &lt;burn&gt; 1.</t>
+  </si>
+  <si>
+    <t>When this is destroyed by combat damage, &lt;search&gt; for a [Fire] card.</t>
+  </si>
+  <si>
+    <t>&lt;Burn&gt; 1.</t>
+  </si>
+  <si>
+    <t>Whenever you play a card, &lt;burn&gt; 1.</t>
+  </si>
+  <si>
+    <t>&lt;Burn&gt; 1 to draw 1 card.</t>
+  </si>
+  <si>
+    <t>&lt;Burn&gt; 1. If it's a [Fire] creature, summon it.</t>
+  </si>
+  <si>
+    <t>&lt;Burn&gt; 2. Summon any [Fire] creatures.</t>
+  </si>
+  <si>
+    <t>Draw until you have 7 cards in hand, then &lt;burn&gt; the rest of your deck. You cannot draw or &lt;burn&gt;.</t>
+  </si>
+  <si>
+    <t>Deal 2 damage to an enemy creature. If that destroys it, burn 1.</t>
+  </si>
+  <si>
+    <t>At the start of your turn, if you control a [Fire] creature, destroy a friendly [Fire] creature and this to &lt;burn&gt; 3. Summon any [Fire] creatures.</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt; for "Novhu, The Kraken".</t>
+  </si>
+  <si>
+    <t>Return a [Water] spell from your mana pool to your hand.</t>
+  </si>
+  <si>
+    <t>Enchant a friendly creature. It gains +0 / +1. When the equipped creature is destroyed, you may move this enchantment to another friendly creature.</t>
+  </si>
+  <si>
+    <t>Destroy all friendly [Earth] creatures. &lt;Heal&gt; equal to the total health of creatures destroyed. Draw 2 cards.</t>
+  </si>
+  <si>
+    <t>All creatures have -2 / -0. At the start of your turn destroy this, &lt;search&gt; for a [Water] field spell, and put it into play.</t>
+  </si>
+  <si>
+    <t>Deal 2 damage to an enemy creature. &lt;Heal&gt; 2.</t>
+  </si>
+  <si>
+    <t>Summon a [Water] creature with cost [Water][Water] or less from your exile pile. &lt;Search&gt; for "Lissa, Spirit of the Fountain".</t>
+  </si>
+  <si>
+    <t>Your spells cost [Air] less.</t>
+  </si>
+  <si>
+    <t>Spells cost [Any][Any] more.</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt; for an [Air] creature.</t>
+  </si>
+  <si>
+    <t>&lt;Burn&gt; 2.</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt; for a [Spirit] card.</t>
+  </si>
+  <si>
+    <t>When you play a card on your turn that costs at least [Spirit], you may summon this from your hand.</t>
+  </si>
+  <si>
+    <t>You may pay [Spirit] to &lt;search&gt; for a Hero.</t>
+  </si>
+  <si>
+    <t>Ashen Swordsman</t>
+  </si>
+  <si>
+    <t>If you &lt;burn&gt; this card, summon it.</t>
+  </si>
+  <si>
+    <t>Lava Imp</t>
+  </si>
+  <si>
+    <t>Novice Firemage</t>
+  </si>
+  <si>
+    <t>&lt;Ranged&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Ready&gt;.</t>
+  </si>
+  <si>
+    <t>Enchant a creature. It gains "&lt;ready&gt;".</t>
+  </si>
+  <si>
+    <t>Your [Fire] creatures have +1 / +0. When a friendly [Fire] non-token creature is destroyed, summon a 0 / 1 [Fire] Phoenix Wisp token with &lt;ready&gt;.</t>
+  </si>
+  <si>
+    <t>Mageslayer</t>
+  </si>
+  <si>
+    <t>Ash Dancer</t>
+  </si>
+  <si>
+    <t>Tokens have +1 / +0.</t>
+  </si>
+  <si>
+    <t>Night of the Soulless</t>
+  </si>
+  <si>
+    <t>When this is destroyed, &lt;search&gt; for a [Water] spell.</t>
+  </si>
+  <si>
+    <t>When this enters the battlefield, deal 1 damage to your opponent.</t>
+  </si>
+  <si>
+    <t>Destroy an enemy creature with 2 or less attack.</t>
+  </si>
+  <si>
+    <t>When this is attacked and destroyed by an enemy creature, destroy that creature.</t>
+  </si>
+  <si>
+    <t>Poisonous Frog</t>
+  </si>
+  <si>
+    <t>Gifted Wanderer</t>
+  </si>
+  <si>
+    <t>Elemental Familiar</t>
+  </si>
+  <si>
+    <t>Sea Snake</t>
+  </si>
+  <si>
+    <t>Healing Touch</t>
+  </si>
+  <si>
+    <t>Restore a friendly creature to full health.</t>
+  </si>
+  <si>
+    <t>Relic of the Deep</t>
+  </si>
+  <si>
+    <t>Aquamarine Tiara</t>
+  </si>
+  <si>
+    <t>At the end of your turn, you may pay [Water] to return an enemy creature to its owner's hand.</t>
+  </si>
+  <si>
+    <t>Equip to a friendly creature. It gains "&lt;ranged&gt;".</t>
+  </si>
+  <si>
+    <t>Horn of Reflection</t>
+  </si>
+  <si>
+    <t>Summon 2 0 / 1 [Water] Mirror Image creature tokens.</t>
+  </si>
+  <si>
+    <t>Once per turn, when an enemy creature declares an attack you may cancel the attack.</t>
+  </si>
+  <si>
+    <t>Bracelet of Deflection</t>
+  </si>
+  <si>
+    <t>Electric Sprite</t>
+  </si>
+  <si>
+    <t>The next [Air] spell you play this turn costs [Air] less.</t>
+  </si>
+  <si>
+    <t>Petal Dancer</t>
+  </si>
+  <si>
+    <t>Return an [Air] spell from your mana pool to your hand.</t>
+  </si>
+  <si>
+    <t>When this is destroyed, &lt;search&gt; for an [Air] creature.</t>
+  </si>
+  <si>
+    <t>Enraged Sky Serpent</t>
+  </si>
+  <si>
+    <t>Stormchaser</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>Disorient</t>
+  </si>
+  <si>
+    <t>Cast when your opponent plays a card. Cancel its effect and shuffle the card into your opponent's deck. They do not pay its mana cost.</t>
+  </si>
+  <si>
+    <t>Seal Spells</t>
+  </si>
+  <si>
+    <t>Both players set aside their hands. When this leaves the battlefield, they add the set aside cards back to their hands.</t>
+  </si>
+  <si>
+    <t>Deal 1 damage to a creature and draw a card.</t>
+  </si>
+  <si>
+    <t>Disenchant</t>
+  </si>
+  <si>
+    <t>Destroy an item to draw a card.</t>
+  </si>
+  <si>
+    <t>Pearl of Spell Storing</t>
+  </si>
+  <si>
+    <t>Magic Mirror</t>
+  </si>
+  <si>
+    <t>Play when your opponent casts a spell targeting you. Change its target to your opponent.</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt; for an [Air] spell. The next [Air] spell you cast this turn costs [Air] less.</t>
+  </si>
+  <si>
+    <t>Ring of Shielding</t>
+  </si>
+  <si>
+    <t>Equip to a friendly creature. The first time it would take damage, destroy this to reduce the damage to 0.</t>
+  </si>
+  <si>
+    <t>Demonic Chain</t>
+  </si>
+  <si>
+    <t>At the end of your turn, summon a [Fire] creature from your mana pool</t>
+  </si>
+  <si>
+    <t>Whenever an enemy creature is destroyed, &lt;search&gt; for a card.</t>
+  </si>
+  <si>
+    <t>Astral Huntress</t>
+  </si>
+  <si>
+    <t>Summoning Stone</t>
+  </si>
+  <si>
+    <t>Whenever you cast a spell, &lt;search&gt; for a 0 cost creature. Summon it.</t>
+  </si>
+  <si>
+    <t>Oil of Etherealness</t>
+  </si>
+  <si>
+    <t>Equip to a friendly creature. It has +X / +0, where X is the amount of [Spirit] in your mana pool.</t>
+  </si>
+  <si>
+    <t>Equip to a friendly creature. It gains "&lt;ethereal&gt;".</t>
+  </si>
+  <si>
+    <t>Enchant a creature. It gains "&lt;ethereal&gt;".</t>
+  </si>
+  <si>
+    <t>Name a non-Hero card. Your opponent must discard a copy of that card if they're holding one.</t>
+  </si>
+  <si>
+    <t>You can only play this card if you control a [Spirit] permanent spell.</t>
+  </si>
+  <si>
+    <t>When this is destroyed, &lt;search&gt; for a [Spirit] item.</t>
+  </si>
+  <si>
+    <t>&lt;Ethereal&gt;.</t>
+  </si>
+  <si>
+    <t>Mind Snake</t>
+  </si>
+  <si>
+    <t>Mind Breaker</t>
+  </si>
+  <si>
+    <t>Mana Scavenger</t>
+  </si>
+  <si>
+    <t>Animate Memory</t>
+  </si>
+  <si>
+    <t>Your other creatures cannot be targeted with attacks. When this is destroyed, you may put it on the top of your deck.</t>
+  </si>
+  <si>
+    <t>Will-o'-the-wisp</t>
+  </si>
+  <si>
+    <t>Spirit Militia</t>
+  </si>
+  <si>
+    <t>Guardian Stones</t>
+  </si>
+  <si>
+    <t>Manifest Dreams</t>
+  </si>
+  <si>
+    <t>Privately view the top 3 cards of your deck. Summon them face down as 1 / 1 [Spirit] Dream creature tokens. When one is destroyed, add it to your hand.</t>
+  </si>
+  <si>
+    <t>Creatures cannot attack. At the start of your turn, if the combined attack of all creatures on the battlefield is greater than or equal to 5, destroy this.</t>
+  </si>
+  <si>
+    <t>Destroy a creature. This cannot be countered.</t>
+  </si>
+  <si>
+    <t>Bend Fate</t>
+  </si>
+  <si>
+    <t>View the top 3 cards of your opponent's deck and put them back in any order. View the top 3 cards of your deck and put them back in any order.</t>
+  </si>
+  <si>
+    <t>Detect Magic</t>
+  </si>
+  <si>
+    <t>Your opponent reveals the number of spells in their hand.</t>
+  </si>
+  <si>
+    <t>Locate Creature</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt; for a creature.</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt; for an item.</t>
+  </si>
+  <si>
+    <t>Resurrection</t>
+  </si>
+  <si>
+    <t>Mind Blank</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>You can pay the elemental mana costs of creatures with [Any].</t>
+  </si>
+  <si>
+    <t>Your opponent cannot view cards in your hand and deck by any means.</t>
+  </si>
+  <si>
+    <t>Summon a creature from your mana pool or exile pile.</t>
+  </si>
+  <si>
+    <t>Enthrall</t>
+  </si>
+  <si>
+    <t>Your creatures have "cannot be targeted by attacks".</t>
   </si>
 </sst>
 </file>
@@ -1772,8 +2066,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1819,43 +2114,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1878,16 +2137,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4859217</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>46302</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>28717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6688017</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>93785</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -1923,7 +2182,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10796955" y="2953625"/>
+              <a:off x="14448693" y="1664086"/>
               <a:ext cx="1828800" cy="1682852"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1956,16 +2215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4869179</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>3514</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>560948</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>70338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6697979</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560948</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>35167</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -2001,8 +2260,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10806917" y="1457176"/>
-              <a:ext cx="1828800" cy="1414977"/>
+              <a:off x="14552440" y="70338"/>
+              <a:ext cx="1828800" cy="1418491"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2063,22 +2322,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I192" totalsRowShown="0">
-  <autoFilter ref="A1:I192" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I251" totalsRowShown="0">
+  <autoFilter ref="A1:I251" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Fire"/>
+        <filter val="Spirit"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Spell"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:I192">
-    <sortCondition ref="C2:C192" customList="Earth,Fire,Water,Air,Spirit"/>
-    <sortCondition ref="D2:D192" customList="Hero,Creature,Spell,Item"/>
-    <sortCondition sortBy="fontColor" ref="F2:F192" dxfId="1"/>
-    <sortCondition ref="F2:F192"/>
-    <sortCondition sortBy="fontColor" ref="E2:E192" dxfId="0"/>
-    <sortCondition ref="E2:E192" customList="Reaction,Enchantment,Equipment,Permanent,Field"/>
-    <sortCondition ref="B2:B192"/>
+  <sortState ref="A24:I38">
+    <sortCondition ref="E1:E193" customList="Reaction,Enchantment,Equipment,Permanent,Field"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
@@ -2392,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="F252" sqref="F252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2445,19 +2703,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2465,19 +2723,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2485,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2500,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2508,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2528,7 +2786,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2543,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2551,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -2566,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2574,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2589,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2597,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -2612,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2620,7 +2878,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2629,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2638,7 +2896,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2646,7 +2904,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2655,7 +2913,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2669,7 +2927,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -2678,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2687,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2695,7 +2953,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -2704,7 +2962,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2713,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2721,7 +2979,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -2739,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2747,7 +3005,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -2756,7 +3014,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -2765,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2773,7 +3031,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2782,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2791,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2799,7 +3057,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -2808,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2817,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2825,7 +3083,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -2834,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2857,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2874,7 +3132,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -2883,7 +3141,7 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2892,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2900,7 +3158,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -2909,7 +3167,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2923,7 +3181,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -2932,7 +3190,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>338</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2941,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2949,7 +3207,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -2958,7 +3216,7 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>414</v>
+        <v>339</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2984,7 +3242,7 @@
         <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2992,7 +3250,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -3004,7 +3262,7 @@
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -3012,7 +3270,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -3021,10 +3279,16 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="I26" t="s">
         <v>20</v>
-      </c>
-      <c r="I26" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -3032,7 +3296,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -3041,18 +3305,24 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>415</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -3060,16 +3330,22 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -3077,19 +3353,22 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -3098,21 +3377,27 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -3121,13 +3406,19 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>335</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -3135,7 +3426,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -3144,18 +3435,15 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
         <v>31</v>
       </c>
-      <c r="I32" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -3163,19 +3451,22 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="I33" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -3183,19 +3474,16 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="F34" t="s">
-        <v>357</v>
-      </c>
       <c r="I34" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -3204,18 +3492,18 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -3223,22 +3511,19 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>332</v>
       </c>
       <c r="I36" t="s">
-        <v>176</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -3246,211 +3531,211 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
       <c r="F37" t="s">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>174</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>44</v>
       </c>
-      <c r="F45" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>45</v>
-      </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -3459,41 +3744,41 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
-      <c r="I48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -3502,352 +3787,355 @@
         <v>2</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
         <v>1</v>
       </c>
-      <c r="I49" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="I50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>393</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
-      </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52">
         <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>354</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
         <v>68</v>
       </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53">
+      <c r="G54">
         <v>3</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>3</v>
       </c>
-      <c r="I53" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="I54" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>393</v>
-      </c>
-      <c r="G54">
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>327</v>
+      </c>
+      <c r="G55">
         <v>2</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" t="s">
-        <v>411</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>411</v>
+        <v>337</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
-      <c r="I56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58">
         <v>3</v>
       </c>
-      <c r="I57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
         <v>68</v>
       </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G58">
+      <c r="G59">
         <v>2</v>
       </c>
-      <c r="H58">
+      <c r="H59">
         <v>2</v>
       </c>
-      <c r="I58" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="I59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" t="s">
-        <v>407</v>
-      </c>
-      <c r="G59">
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>336</v>
+      </c>
+      <c r="G60">
         <v>3</v>
-      </c>
-      <c r="H59">
-        <v>3</v>
-      </c>
-      <c r="I59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60">
-        <v>5</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" t="s">
-        <v>68</v>
-      </c>
       <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -3856,18 +4144,18 @@
         <v>16</v>
       </c>
       <c r="I64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -3876,101 +4164,104 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
         <v>68</v>
       </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>191</v>
-      </c>
-      <c r="C68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" t="s">
-        <v>75</v>
-      </c>
-      <c r="I68" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="I69" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>68</v>
-      </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
@@ -3979,505 +4270,538 @@
         <v>16</v>
       </c>
       <c r="F70" t="s">
+        <v>206</v>
+      </c>
+      <c r="I70" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>300</v>
+      </c>
+      <c r="I75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>68</v>
+      </c>
+      <c r="I76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>63</v>
+      </c>
+      <c r="I77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>75</v>
       </c>
-      <c r="I70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>345</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>63</v>
+      </c>
+      <c r="I78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
         <v>68</v>
       </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="I79" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I80" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>63</v>
+      </c>
+      <c r="I81" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" t="s">
+        <v>40</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
         <v>75</v>
       </c>
-      <c r="I71" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" t="s">
+        <v>68</v>
+      </c>
+      <c r="I86" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>306</v>
+      </c>
+      <c r="C88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" t="s">
+        <v>40</v>
+      </c>
+      <c r="F88" t="s">
+        <v>206</v>
+      </c>
+      <c r="I88" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" t="s">
+        <v>63</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
         <v>352</v>
-      </c>
-      <c r="C72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" t="s">
-        <v>31</v>
-      </c>
-      <c r="I73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>342</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" t="s">
-        <v>357</v>
-      </c>
-      <c r="I74" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" t="s">
-        <v>75</v>
-      </c>
-      <c r="I75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" t="s">
-        <v>70</v>
-      </c>
-      <c r="I76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s">
-        <v>70</v>
-      </c>
-      <c r="I77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s">
-        <v>75</v>
-      </c>
-      <c r="I78" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" t="s">
-        <v>75</v>
-      </c>
-      <c r="I79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>195</v>
-      </c>
-      <c r="C80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" t="s">
-        <v>70</v>
-      </c>
-      <c r="I80" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" t="s">
-        <v>68</v>
-      </c>
-      <c r="D81" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" t="s">
-        <v>102</v>
-      </c>
-      <c r="I81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>71</v>
-      </c>
-      <c r="C82" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" t="s">
-        <v>72</v>
-      </c>
-      <c r="I82" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>119</v>
-      </c>
-      <c r="C83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D83" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" t="s">
-        <v>72</v>
-      </c>
-      <c r="I83" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" t="s">
-        <v>41</v>
-      </c>
-      <c r="I84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" t="s">
-        <v>75</v>
-      </c>
-      <c r="I85" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" t="s">
-        <v>41</v>
-      </c>
-      <c r="I86" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>366</v>
-      </c>
-      <c r="C87" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s">
-        <v>249</v>
-      </c>
-      <c r="I87" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" t="s">
-        <v>68</v>
-      </c>
-      <c r="D88" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" t="s">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s">
-        <v>70</v>
-      </c>
-      <c r="I88" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" t="s">
-        <v>47</v>
-      </c>
-      <c r="F89" t="s">
-        <v>411</v>
-      </c>
-      <c r="I89" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="I90" t="s">
-        <v>124</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I91" t="s">
-        <v>122</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="F92" t="s">
+        <v>117</v>
       </c>
       <c r="I92" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I93" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
@@ -4486,203 +4810,197 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94" t="s">
-        <v>142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>356</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
       </c>
-      <c r="F95" t="s">
-        <v>358</v>
-      </c>
       <c r="G95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="G96">
         <v>3</v>
       </c>
       <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
         <v>1</v>
       </c>
-      <c r="H97">
-        <v>3</v>
-      </c>
       <c r="I97" t="s">
-        <v>401</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>331</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>393</v>
+        <v>119</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D99" t="s">
         <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
-      <c r="I99" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="G100">
         <v>3</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D101" t="s">
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>403</v>
+        <v>111</v>
       </c>
       <c r="G101">
         <v>3</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>146</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D102" t="s">
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -4691,72 +5009,78 @@
         <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
     </row>
     <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>113</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
       </c>
       <c r="I103" t="s">
-        <v>219</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C105" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
       </c>
-      <c r="E105" t="s">
-        <v>16</v>
-      </c>
       <c r="I105" t="s">
-        <v>235</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -4765,585 +5089,597 @@
         <v>16</v>
       </c>
       <c r="I106" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" t="s">
         <v>126</v>
-      </c>
-      <c r="C107" t="s">
-        <v>121</v>
-      </c>
-      <c r="D107" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" t="s">
-        <v>20</v>
-      </c>
-      <c r="I107" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>206</v>
-      </c>
-      <c r="C108" t="s">
-        <v>121</v>
-      </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I108" t="s">
-        <v>417</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>374</v>
+        <v>171</v>
       </c>
       <c r="C109" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
-      <c r="F109" t="s">
-        <v>372</v>
+      <c r="E109" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
-      <c r="E110" t="s">
-        <v>16</v>
-      </c>
       <c r="F110" t="s">
-        <v>358</v>
+        <v>119</v>
       </c>
       <c r="I110" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
       <c r="F111" t="s">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="I111" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
-      <c r="E112" t="s">
-        <v>16</v>
-      </c>
       <c r="F112" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="I112" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="I113" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="I114" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C115" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="I115" t="s">
-        <v>140</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="F116" t="s">
+        <v>119</v>
       </c>
       <c r="I116" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C117" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I117" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
-      <c r="F118" t="s">
-        <v>128</v>
+      <c r="E118" t="s">
+        <v>30</v>
       </c>
       <c r="I118" t="s">
-        <v>161</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="I119" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="F120" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="I120" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" t="s">
+        <v>106</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" t="s">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
-        <v>214</v>
-      </c>
-      <c r="C121" t="s">
-        <v>121</v>
-      </c>
-      <c r="D121" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" t="s">
-        <v>137</v>
-      </c>
       <c r="I121" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="C122" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I122" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
       </c>
-      <c r="E123" t="s">
-        <v>47</v>
-      </c>
       <c r="F123" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="I123" t="s">
-        <v>405</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="C124" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="I124" t="s">
-        <v>159</v>
+        <v>359</v>
       </c>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C125" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
+      <c r="E125" t="s">
+        <v>45</v>
+      </c>
       <c r="F125" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="I125" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="I126" t="s">
-        <v>217</v>
+        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
-      </c>
-      <c r="E127" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F127" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="I127" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="C128" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E128" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>393</v>
+        <v>327</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>229</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C129" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E129" t="s">
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="I129" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C130" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F130" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I130" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>184</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="D131" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F131" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="I131" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="C132" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D132" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="I132" t="s">
-        <v>242</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="C133" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="F133" t="s">
+        <v>198</v>
+      </c>
+      <c r="I133" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="C134" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D134" t="s">
         <v>11</v>
@@ -5352,177 +5688,171 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D135" t="s">
         <v>11</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D136" t="s">
         <v>11</v>
       </c>
-      <c r="F136" t="s">
-        <v>393</v>
-      </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="C137" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D137" t="s">
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="G137">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="C138" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D138" t="s">
         <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>381</v>
+        <v>210</v>
       </c>
       <c r="C139" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D139" t="s">
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H139">
-        <v>4</v>
-      </c>
-      <c r="I139" t="s">
-        <v>383</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="C140" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H140">
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -5530,108 +5860,111 @@
       <c r="H141">
         <v>3</v>
       </c>
-      <c r="I141" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="C142" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D142" t="s">
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="G142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H142">
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>396</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D143" t="s">
         <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="G143">
         <v>3</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
     </row>
     <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="C144" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>363</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144">
+        <v>5</v>
       </c>
       <c r="I144" t="s">
-        <v>262</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C145" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
       </c>
-      <c r="E145" t="s">
-        <v>16</v>
-      </c>
       <c r="I145" t="s">
-        <v>283</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="C146" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
@@ -5640,18 +5973,18 @@
         <v>16</v>
       </c>
       <c r="I146" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
@@ -5660,473 +5993,470 @@
         <v>16</v>
       </c>
       <c r="I147" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="C148" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I148" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="C149" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I149" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="C150" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
       </c>
-      <c r="F150" t="s">
-        <v>249</v>
+      <c r="E150" t="s">
+        <v>30</v>
       </c>
       <c r="I150" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="C151" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
+      <c r="F151" t="s">
+        <v>206</v>
+      </c>
       <c r="I151" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="C152" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
-      <c r="E152" t="s">
-        <v>20</v>
-      </c>
-      <c r="F152" t="s">
-        <v>249</v>
-      </c>
       <c r="I152" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="C153" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F153" t="s">
+        <v>206</v>
       </c>
       <c r="I153" t="s">
-        <v>226</v>
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I154" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="C155" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
-      </c>
-      <c r="F155" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="I155" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>376</v>
+        <v>231</v>
       </c>
       <c r="C156" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="I156" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="C157" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F157" t="s">
-        <v>360</v>
+        <v>17</v>
       </c>
       <c r="I157" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="C158" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
       </c>
+      <c r="E158" t="s">
+        <v>16</v>
+      </c>
       <c r="F158" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="I158" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="C159" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
       </c>
       <c r="F159" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
       <c r="I159" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="C160" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
       </c>
-      <c r="E160" t="s">
-        <v>47</v>
-      </c>
       <c r="F160" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
       <c r="I160" t="s">
-        <v>398</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>363</v>
+        <v>228</v>
       </c>
       <c r="C161" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>364</v>
+        <v>212</v>
       </c>
       <c r="I161" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="C162" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F162" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="I162" t="s">
-        <v>399</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="C163" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D163" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="E163" t="s">
+        <v>30</v>
+      </c>
+      <c r="F163" t="s">
+        <v>369</v>
       </c>
       <c r="I163" t="s">
-        <v>291</v>
+        <v>418</v>
       </c>
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="C164" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I164" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="C165" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D165" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I165" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="C166" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I166" t="s">
-        <v>192</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="C167" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="D167" t="s">
-        <v>44</v>
-      </c>
-      <c r="F167" t="s">
-        <v>335</v>
+        <v>26</v>
       </c>
       <c r="I167" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C168" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="F168" t="s">
+        <v>280</v>
+      </c>
+      <c r="I168" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="C169" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
-      </c>
-      <c r="F169" t="s">
-        <v>393</v>
       </c>
       <c r="G169">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>1</v>
-      </c>
-      <c r="I169" t="s">
-        <v>299</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="C170" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
+      </c>
+      <c r="F170" t="s">
+        <v>327</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -6135,485 +6465,1554 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>306</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="C171" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
       </c>
-      <c r="F171" t="s">
-        <v>298</v>
-      </c>
       <c r="G171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="C172" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
       </c>
+      <c r="F172" t="s">
+        <v>246</v>
+      </c>
       <c r="G172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>303</v>
+        <v>422</v>
       </c>
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="C173" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
       </c>
-      <c r="F173" t="s">
-        <v>394</v>
-      </c>
       <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
         <v>2</v>
       </c>
-      <c r="H173">
-        <v>3</v>
-      </c>
       <c r="I173" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="C174" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174">
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="C175" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="G175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
+        <v>256</v>
+      </c>
+      <c r="C176" t="s">
+        <v>244</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>324</v>
+      </c>
+      <c r="G176">
+        <v>4</v>
+      </c>
+      <c r="H176">
+        <v>4</v>
+      </c>
+      <c r="I176" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177" t="s">
+        <v>244</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
+        <v>257</v>
+      </c>
+      <c r="C178" t="s">
+        <v>244</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="I178" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>176</v>
+      </c>
+      <c r="B179" t="s">
+        <v>260</v>
+      </c>
+      <c r="C179" t="s">
+        <v>244</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="I179" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
+        <v>259</v>
+      </c>
+      <c r="C180" t="s">
+        <v>244</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="I180" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
+        <v>308</v>
+      </c>
+      <c r="C181" t="s">
+        <v>244</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" t="s">
+        <v>45</v>
+      </c>
+      <c r="F181" t="s">
+        <v>324</v>
+      </c>
+      <c r="I181" t="s">
         <v>325</v>
       </c>
-      <c r="C176" t="s">
-        <v>296</v>
-      </c>
-      <c r="D176" t="s">
-        <v>15</v>
-      </c>
-      <c r="I176" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>310</v>
-      </c>
-      <c r="C177" t="s">
-        <v>296</v>
-      </c>
-      <c r="D177" t="s">
-        <v>15</v>
-      </c>
-      <c r="I177" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>313</v>
-      </c>
-      <c r="C178" t="s">
-        <v>296</v>
-      </c>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="I178" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>312</v>
-      </c>
-      <c r="C179" t="s">
-        <v>296</v>
-      </c>
-      <c r="D179" t="s">
-        <v>15</v>
-      </c>
-      <c r="I179" t="s">
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
+        <v>266</v>
+      </c>
+      <c r="C182" t="s">
+        <v>244</v>
+      </c>
+      <c r="D182" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" t="s">
+        <v>246</v>
+      </c>
+      <c r="I182" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>276</v>
+      </c>
+      <c r="C183" t="s">
+        <v>244</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" t="s">
+        <v>327</v>
+      </c>
+      <c r="I183" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>262</v>
+      </c>
+      <c r="C184" t="s">
+        <v>244</v>
+      </c>
+      <c r="D184" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" t="s">
+        <v>246</v>
+      </c>
+      <c r="I184" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>182</v>
+      </c>
+      <c r="B185" t="s">
+        <v>272</v>
+      </c>
+      <c r="C185" t="s">
+        <v>244</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185" t="s">
+        <v>246</v>
+      </c>
+      <c r="I185" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>183</v>
+      </c>
+      <c r="B186" t="s">
+        <v>269</v>
+      </c>
+      <c r="C186" t="s">
+        <v>244</v>
+      </c>
+      <c r="D186" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" t="s">
+        <v>246</v>
+      </c>
+      <c r="I186" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>184</v>
+      </c>
+      <c r="B187" t="s">
+        <v>268</v>
+      </c>
+      <c r="C187" t="s">
+        <v>244</v>
+      </c>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" t="s">
+        <v>45</v>
+      </c>
+      <c r="I187" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>185</v>
+      </c>
+      <c r="B188" t="s">
+        <v>278</v>
+      </c>
+      <c r="C188" t="s">
+        <v>244</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188" t="s">
+        <v>248</v>
+      </c>
+      <c r="I188" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>186</v>
+      </c>
+      <c r="B189" t="s">
+        <v>264</v>
+      </c>
+      <c r="C189" t="s">
+        <v>244</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" t="s">
+        <v>45</v>
+      </c>
+      <c r="F189" t="s">
+        <v>327</v>
+      </c>
+      <c r="I189" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>187</v>
+      </c>
+      <c r="B190" t="s">
+        <v>274</v>
+      </c>
+      <c r="C190" t="s">
+        <v>244</v>
+      </c>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" t="s">
+        <v>328</v>
+      </c>
+      <c r="I190" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>188</v>
+      </c>
+      <c r="B191" t="s">
+        <v>279</v>
+      </c>
+      <c r="C191" t="s">
+        <v>244</v>
+      </c>
+      <c r="D191" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" t="s">
+        <v>371</v>
+      </c>
+      <c r="I191" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>189</v>
+      </c>
+      <c r="B192" t="s">
+        <v>282</v>
+      </c>
+      <c r="C192" t="s">
+        <v>244</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" t="s">
+        <v>255</v>
+      </c>
+      <c r="I192" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>190</v>
+      </c>
+      <c r="B193" t="s">
+        <v>284</v>
+      </c>
+      <c r="C193" t="s">
+        <v>244</v>
+      </c>
+      <c r="D193" t="s">
+        <v>26</v>
+      </c>
+      <c r="E193" t="s">
+        <v>40</v>
+      </c>
+      <c r="F193" t="s">
+        <v>246</v>
+      </c>
+      <c r="I193" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>379</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" t="s">
+        <v>17</v>
+      </c>
+      <c r="I194" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>380</v>
+      </c>
+      <c r="C195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" t="s">
+        <v>17</v>
+      </c>
+      <c r="I195" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>382</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+      <c r="I196" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>387</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I197" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>385</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+      <c r="I198" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>391</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>26</v>
+      </c>
+      <c r="E199" t="s">
+        <v>45</v>
+      </c>
+      <c r="F199" t="s">
+        <v>384</v>
+      </c>
+      <c r="I199" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>390</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>26</v>
+      </c>
+      <c r="E200" t="s">
+        <v>40</v>
+      </c>
+      <c r="F200" t="s">
+        <v>29</v>
+      </c>
+      <c r="I200" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>368</v>
-      </c>
-      <c r="C180" t="s">
-        <v>296</v>
-      </c>
-      <c r="D180" t="s">
-        <v>15</v>
-      </c>
-      <c r="E180" t="s">
-        <v>47</v>
-      </c>
-      <c r="F180" t="s">
-        <v>390</v>
-      </c>
-      <c r="I180" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>179</v>
-      </c>
-      <c r="B181" t="s">
-        <v>319</v>
-      </c>
-      <c r="C181" t="s">
-        <v>296</v>
-      </c>
-      <c r="D181" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" t="s">
-        <v>298</v>
-      </c>
-      <c r="I181" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>180</v>
-      </c>
-      <c r="B182" t="s">
-        <v>331</v>
-      </c>
-      <c r="C182" t="s">
-        <v>296</v>
-      </c>
-      <c r="D182" t="s">
-        <v>15</v>
-      </c>
-      <c r="F182" t="s">
-        <v>393</v>
-      </c>
-      <c r="I182" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>181</v>
-      </c>
-      <c r="B183" t="s">
-        <v>315</v>
-      </c>
-      <c r="C183" t="s">
-        <v>296</v>
-      </c>
-      <c r="D183" t="s">
-        <v>15</v>
-      </c>
-      <c r="F183" t="s">
-        <v>298</v>
-      </c>
-      <c r="I183" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>182</v>
-      </c>
-      <c r="B184" t="s">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>426</v>
+      </c>
+      <c r="C201" t="s">
+        <v>61</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>424</v>
+      </c>
+      <c r="C202" t="s">
+        <v>61</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202" t="s">
+        <v>68</v>
+      </c>
+      <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>433</v>
+      </c>
+      <c r="C203" t="s">
+        <v>61</v>
+      </c>
+      <c r="D203" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" t="s">
         <v>327</v>
       </c>
-      <c r="C184" t="s">
-        <v>296</v>
-      </c>
-      <c r="D184" t="s">
-        <v>15</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>427</v>
+      </c>
+      <c r="C204" t="s">
+        <v>61</v>
+      </c>
+      <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204" t="s">
+        <v>68</v>
+      </c>
+      <c r="G204">
+        <v>2</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>432</v>
+      </c>
+      <c r="C205" t="s">
+        <v>61</v>
+      </c>
+      <c r="D205" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" t="s">
+        <v>335</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>435</v>
+      </c>
+      <c r="C206" t="s">
+        <v>61</v>
+      </c>
+      <c r="D206" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" t="s">
+        <v>30</v>
+      </c>
+      <c r="F206" t="s">
+        <v>68</v>
+      </c>
+      <c r="I206" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>440</v>
+      </c>
+      <c r="C207" t="s">
+        <v>106</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" t="s">
+        <v>119</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>442</v>
+      </c>
+      <c r="C208" t="s">
+        <v>106</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>441</v>
+      </c>
+      <c r="C209" t="s">
+        <v>106</v>
+      </c>
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" t="s">
+        <v>119</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>443</v>
+      </c>
+      <c r="C210" t="s">
+        <v>106</v>
+      </c>
+      <c r="D210" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>444</v>
+      </c>
+      <c r="C211" t="s">
+        <v>106</v>
+      </c>
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
         <v>16</v>
       </c>
-      <c r="F184" t="s">
-        <v>298</v>
-      </c>
-      <c r="I184" t="s">
+      <c r="I211" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>446</v>
+      </c>
+      <c r="C212" t="s">
+        <v>106</v>
+      </c>
+      <c r="D212" t="s">
+        <v>26</v>
+      </c>
+      <c r="E212" t="s">
+        <v>45</v>
+      </c>
+      <c r="F212" t="s">
+        <v>119</v>
+      </c>
+      <c r="I212" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>447</v>
+      </c>
+      <c r="C213" t="s">
+        <v>106</v>
+      </c>
+      <c r="D213" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" t="s">
+        <v>40</v>
+      </c>
+      <c r="I213" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>450</v>
+      </c>
+      <c r="C214" t="s">
+        <v>106</v>
+      </c>
+      <c r="D214" t="s">
+        <v>26</v>
+      </c>
+      <c r="I214" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>453</v>
+      </c>
+      <c r="C215" t="s">
+        <v>106</v>
+      </c>
+      <c r="D215" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" t="s">
+        <v>45</v>
+      </c>
+      <c r="F215" t="s">
+        <v>111</v>
+      </c>
+      <c r="I215" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>454</v>
+      </c>
+      <c r="C216" t="s">
+        <v>196</v>
+      </c>
+      <c r="D216" t="s">
+        <v>11</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>456</v>
+      </c>
+      <c r="C217" t="s">
+        <v>196</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" t="s">
+        <v>206</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>2</v>
+      </c>
+      <c r="I217" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>460</v>
+      </c>
+      <c r="C218" t="s">
+        <v>196</v>
+      </c>
+      <c r="D218" t="s">
+        <v>11</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>459</v>
+      </c>
+      <c r="C219" t="s">
+        <v>196</v>
+      </c>
+      <c r="D219" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" t="s">
+        <v>327</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>467</v>
+      </c>
+      <c r="C220" t="s">
+        <v>196</v>
+      </c>
+      <c r="D220" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" t="s">
+        <v>206</v>
+      </c>
+      <c r="I220" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>462</v>
+      </c>
+      <c r="C221" t="s">
+        <v>196</v>
+      </c>
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221" t="s">
+        <v>16</v>
+      </c>
+      <c r="F221" t="s">
+        <v>206</v>
+      </c>
+      <c r="I221" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>461</v>
+      </c>
+      <c r="C222" t="s">
+        <v>196</v>
+      </c>
+      <c r="D222" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" t="s">
+        <v>206</v>
+      </c>
+      <c r="I222" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>464</v>
+      </c>
+      <c r="C223" t="s">
+        <v>196</v>
+      </c>
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223" t="s">
+        <v>45</v>
+      </c>
+      <c r="F223" t="s">
+        <v>206</v>
+      </c>
+      <c r="I223" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>475</v>
+      </c>
+      <c r="C224" t="s">
+        <v>196</v>
+      </c>
+      <c r="D224" t="s">
+        <v>26</v>
+      </c>
+      <c r="E224" t="s">
+        <v>45</v>
+      </c>
+      <c r="F224" t="s">
+        <v>346</v>
+      </c>
+      <c r="I224" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>473</v>
+      </c>
+      <c r="C225" t="s">
+        <v>196</v>
+      </c>
+      <c r="D225" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" t="s">
+        <v>40</v>
+      </c>
+      <c r="I225" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>469</v>
+      </c>
+      <c r="C226" t="s">
+        <v>196</v>
+      </c>
+      <c r="D226" t="s">
+        <v>26</v>
+      </c>
+      <c r="F226" t="s">
+        <v>206</v>
+      </c>
+      <c r="I226" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
+        <v>470</v>
+      </c>
+      <c r="C227" t="s">
+        <v>196</v>
+      </c>
+      <c r="D227" t="s">
+        <v>26</v>
+      </c>
+      <c r="F227" t="s">
+        <v>206</v>
+      </c>
+      <c r="I227" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>478</v>
+      </c>
+      <c r="C228" t="s">
+        <v>244</v>
+      </c>
+      <c r="D228" t="s">
+        <v>42</v>
+      </c>
+      <c r="F228" t="s">
+        <v>280</v>
+      </c>
+      <c r="I228" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>479</v>
+      </c>
+      <c r="C229" t="s">
+        <v>244</v>
+      </c>
+      <c r="D229" t="s">
+        <v>26</v>
+      </c>
+      <c r="E229" t="s">
+        <v>45</v>
+      </c>
+      <c r="F229" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>183</v>
-      </c>
-      <c r="B185" t="s">
-        <v>323</v>
-      </c>
-      <c r="C185" t="s">
-        <v>296</v>
-      </c>
-      <c r="D185" t="s">
-        <v>15</v>
-      </c>
-      <c r="E185" t="s">
-        <v>20</v>
-      </c>
-      <c r="F185" t="s">
-        <v>298</v>
-      </c>
-      <c r="I185" t="s">
+      <c r="I229" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>481</v>
+      </c>
+      <c r="C230" t="s">
+        <v>244</v>
+      </c>
+      <c r="D230" t="s">
+        <v>26</v>
+      </c>
+      <c r="E230" t="s">
+        <v>40</v>
+      </c>
+      <c r="I230" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>494</v>
+      </c>
+      <c r="C231" t="s">
+        <v>244</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
+        <v>491</v>
+      </c>
+      <c r="C232" t="s">
+        <v>244</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232">
+        <v>2</v>
+      </c>
+      <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>492</v>
+      </c>
+      <c r="C233" t="s">
+        <v>244</v>
+      </c>
+      <c r="D233" t="s">
+        <v>11</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
+        <v>496</v>
+      </c>
+      <c r="C234" t="s">
+        <v>244</v>
+      </c>
+      <c r="D234" t="s">
+        <v>11</v>
+      </c>
+      <c r="F234" t="s">
+        <v>246</v>
+      </c>
+      <c r="G234">
+        <v>2</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>489</v>
+      </c>
+      <c r="C235" t="s">
+        <v>244</v>
+      </c>
+      <c r="D235" t="s">
+        <v>11</v>
+      </c>
+      <c r="F235" t="s">
+        <v>246</v>
+      </c>
+      <c r="G235">
+        <v>2</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>490</v>
+      </c>
+      <c r="C236" t="s">
+        <v>244</v>
+      </c>
+      <c r="D236" t="s">
+        <v>11</v>
+      </c>
+      <c r="F236" t="s">
+        <v>248</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>495</v>
+      </c>
+      <c r="C237" t="s">
+        <v>244</v>
+      </c>
+      <c r="D237" t="s">
+        <v>11</v>
+      </c>
+      <c r="F237" t="s">
+        <v>335</v>
+      </c>
+      <c r="G237">
+        <v>2</v>
+      </c>
+      <c r="H237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>497</v>
+      </c>
+      <c r="C238" t="s">
+        <v>244</v>
+      </c>
+      <c r="D238" t="s">
+        <v>15</v>
+      </c>
+      <c r="F238" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>184</v>
-      </c>
-      <c r="B186" t="s">
-        <v>321</v>
-      </c>
-      <c r="C186" t="s">
-        <v>296</v>
-      </c>
-      <c r="D186" t="s">
-        <v>15</v>
-      </c>
-      <c r="E186" t="s">
-        <v>47</v>
-      </c>
-      <c r="I186" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>185</v>
-      </c>
-      <c r="B187" t="s">
-        <v>333</v>
-      </c>
-      <c r="C187" t="s">
-        <v>296</v>
-      </c>
-      <c r="D187" t="s">
-        <v>15</v>
-      </c>
-      <c r="E187" t="s">
-        <v>16</v>
-      </c>
-      <c r="F187" t="s">
-        <v>301</v>
-      </c>
-      <c r="I187" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>186</v>
-      </c>
-      <c r="B188" t="s">
-        <v>317</v>
-      </c>
-      <c r="C188" t="s">
-        <v>296</v>
-      </c>
-      <c r="D188" t="s">
-        <v>15</v>
-      </c>
-      <c r="E188" t="s">
-        <v>47</v>
-      </c>
-      <c r="F188" t="s">
-        <v>298</v>
-      </c>
-      <c r="I188" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
-        <v>329</v>
-      </c>
-      <c r="C189" t="s">
-        <v>296</v>
-      </c>
-      <c r="D189" t="s">
-        <v>15</v>
-      </c>
-      <c r="E189" t="s">
-        <v>20</v>
-      </c>
-      <c r="F189" t="s">
-        <v>301</v>
-      </c>
-      <c r="I189" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>188</v>
-      </c>
-      <c r="B190" t="s">
-        <v>334</v>
-      </c>
-      <c r="C190" t="s">
-        <v>296</v>
-      </c>
-      <c r="D190" t="s">
-        <v>15</v>
-      </c>
-      <c r="F190" t="s">
-        <v>308</v>
-      </c>
-      <c r="I190" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>337</v>
-      </c>
-      <c r="C191" t="s">
-        <v>296</v>
-      </c>
-      <c r="D191" t="s">
-        <v>15</v>
-      </c>
-      <c r="F191" t="s">
-        <v>335</v>
-      </c>
-      <c r="I191" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>190</v>
-      </c>
-      <c r="B192" t="s">
-        <v>340</v>
-      </c>
-      <c r="C192" t="s">
-        <v>296</v>
-      </c>
-      <c r="D192" t="s">
-        <v>27</v>
-      </c>
-      <c r="E192" t="s">
-        <v>41</v>
-      </c>
-      <c r="I192" t="s">
-        <v>395</v>
+      <c r="I238" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
+        <v>501</v>
+      </c>
+      <c r="C239" t="s">
+        <v>244</v>
+      </c>
+      <c r="D239" t="s">
+        <v>15</v>
+      </c>
+      <c r="F239" t="s">
+        <v>328</v>
+      </c>
+      <c r="I239" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>503</v>
+      </c>
+      <c r="C240" t="s">
+        <v>244</v>
+      </c>
+      <c r="D240" t="s">
+        <v>15</v>
+      </c>
+      <c r="I240" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>505</v>
+      </c>
+      <c r="C241" t="s">
+        <v>244</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+      <c r="I241" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
+        <v>508</v>
+      </c>
+      <c r="C242" t="s">
+        <v>244</v>
+      </c>
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" t="s">
+        <v>371</v>
+      </c>
+      <c r="I242" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>509</v>
+      </c>
+      <c r="C243" t="s">
+        <v>244</v>
+      </c>
+      <c r="D243" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" t="s">
+        <v>45</v>
+      </c>
+      <c r="F243" t="s">
+        <v>328</v>
+      </c>
+      <c r="I243" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>510</v>
+      </c>
+      <c r="C244" t="s">
+        <v>244</v>
+      </c>
+      <c r="D244" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244" t="s">
+        <v>45</v>
+      </c>
+      <c r="F244" t="s">
+        <v>248</v>
+      </c>
+      <c r="I244" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>514</v>
+      </c>
+      <c r="C245" t="s">
+        <v>244</v>
+      </c>
+      <c r="D245" t="s">
+        <v>15</v>
+      </c>
+      <c r="E245" t="s">
+        <v>45</v>
+      </c>
+      <c r="I245" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>244</v>
+      </c>
+      <c r="D246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>244</v>
+      </c>
+      <c r="D247" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>244</v>
+      </c>
+      <c r="D248" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>244</v>
+      </c>
+      <c r="D249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>244</v>
+      </c>
+      <c r="D250" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C251" t="s">
+        <v>244</v>
+      </c>
+      <c r="D251" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/design/cards.xlsx
+++ b/design/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\git\hexal-ccg\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7096DB84-6DB9-4134-A886-EAF70AEF92D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CB0D2E6-5396-4D61-9457-43D6608EF0FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="228" yWindow="468" windowWidth="30588" windowHeight="19836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="518">
   <si>
     <t>ID</t>
   </si>
@@ -1583,6 +1583,12 @@
   </si>
   <si>
     <t>Your creatures have "cannot be targeted by attacks".</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt; for a card. Do not reveal it, and place it face-down under this card. When this is destroyed, add the saved card to your hand.</t>
+  </si>
+  <si>
+    <t>Seal World Line</t>
   </si>
 </sst>
 </file>
@@ -2139,17 +2145,17 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>28717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Element">
@@ -2172,7 +2178,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2223,11 +2229,11 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>560948</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>35167</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Type">
@@ -2250,7 +2256,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2323,20 +2329,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I251" totalsRowShown="0">
-  <autoFilter ref="A1:I251" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Spirit"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Spell"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A24:I38">
-    <sortCondition ref="E1:E193" customList="Reaction,Enchantment,Equipment,Permanent,Field"/>
+  <autoFilter ref="A1:I251" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:I251">
+    <sortCondition ref="A1:A251"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
@@ -2652,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F252" sqref="F252"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2698,7 +2693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2718,7 +2713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2738,7 +2733,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2761,7 +2756,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2781,7 +2776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2804,7 +2799,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2827,7 +2822,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2850,7 +2845,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2873,7 +2868,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2899,7 +2894,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2922,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2948,7 +2943,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2974,7 +2969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3000,7 +2995,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3026,7 +3021,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3052,7 +3047,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3078,7 +3073,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3101,7 +3096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3127,7 +3122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3153,7 +3148,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3176,7 +3171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3202,7 +3197,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3225,7 +3220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3245,7 +3240,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3265,7 +3260,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3291,7 +3286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3317,12 +3312,12 @@
         <v>340</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -3330,22 +3325,16 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
       <c r="I28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -3353,22 +3342,19 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -3380,24 +3366,18 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>35</v>
-      </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -3409,19 +3389,13 @@
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>335</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3441,9 +3415,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -3451,22 +3428,19 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="I33" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -3474,16 +3448,19 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
+      <c r="F34" t="s">
+        <v>337</v>
+      </c>
       <c r="I34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -3492,18 +3469,18 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>311</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -3511,19 +3488,28 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>29</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -3531,39 +3517,48 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>335</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
       </c>
       <c r="I38" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -3574,16 +3569,22 @@
       <c r="E39" t="s">
         <v>40</v>
       </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
       <c r="I39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -3594,22 +3595,16 @@
       <c r="E40" t="s">
         <v>40</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -3617,19 +3612,19 @@
       <c r="D41" t="s">
         <v>26</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="I41" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>39</v>
-      </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -3641,15 +3636,15 @@
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -3657,42 +3652,42 @@
       <c r="D43" t="s">
         <v>26</v>
       </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
@@ -3704,35 +3699,38 @@
         <v>65</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C47" t="s">
         <v>61</v>
@@ -3744,18 +3742,15 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
@@ -3764,18 +3759,21 @@
         <v>11</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
@@ -3787,18 +3785,18 @@
         <v>2</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
@@ -3806,22 +3804,25 @@
       <c r="D50" t="s">
         <v>11</v>
       </c>
+      <c r="F50" t="s">
+        <v>327</v>
+      </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
         <v>61</v>
@@ -3830,24 +3831,24 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
         <v>61</v>
@@ -3855,25 +3856,22 @@
       <c r="D52" t="s">
         <v>11</v>
       </c>
-      <c r="F52" t="s">
-        <v>68</v>
-      </c>
       <c r="G52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="C53" t="s">
         <v>61</v>
@@ -3881,22 +3879,25 @@
       <c r="D53" t="s">
         <v>11</v>
       </c>
+      <c r="F53" t="s">
+        <v>68</v>
+      </c>
       <c r="G53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>297</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -3905,24 +3906,21 @@
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>3</v>
-      </c>
-      <c r="I54" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
         <v>61</v>
@@ -3931,21 +3929,21 @@
         <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
         <v>61</v>
@@ -3957,18 +3955,21 @@
         <v>337</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
         <v>61</v>
@@ -3977,24 +3978,24 @@
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>337</v>
+        <v>63</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
@@ -4003,24 +4004,24 @@
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
@@ -4029,24 +4030,24 @@
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>336</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
@@ -4055,50 +4056,41 @@
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>336</v>
+        <v>91</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>91</v>
-      </c>
-      <c r="G61">
-        <v>5</v>
-      </c>
-      <c r="H61">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I61" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
         <v>61</v>
@@ -4107,32 +4099,35 @@
         <v>26</v>
       </c>
       <c r="I62" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
       </c>
       <c r="I63" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>61</v>
@@ -4144,18 +4139,18 @@
         <v>16</v>
       </c>
       <c r="I64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -4164,35 +4159,35 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I66" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
         <v>61</v>
@@ -4203,16 +4198,22 @@
       <c r="E67" t="s">
         <v>19</v>
       </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
       <c r="I67" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
         <v>61</v>
@@ -4220,48 +4221,45 @@
       <c r="D68" t="s">
         <v>15</v>
       </c>
-      <c r="E68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
+      <c r="F68" t="s">
+        <v>68</v>
       </c>
       <c r="I68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>206</v>
+      </c>
+      <c r="I69" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
         <v>61</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" t="s">
-        <v>68</v>
-      </c>
-      <c r="I69" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>67</v>
-      </c>
-      <c r="B70" t="s">
-        <v>99</v>
-      </c>
-      <c r="C70" t="s">
-        <v>196</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
@@ -4270,18 +4268,18 @@
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c r="I70" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="C71" t="s">
         <v>61</v>
@@ -4290,21 +4288,27 @@
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>68</v>
       </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
       <c r="I71" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C72" t="s">
         <v>61</v>
@@ -4322,18 +4326,18 @@
         <v>2</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>61</v>
@@ -4342,27 +4346,18 @@
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73">
-        <v>2</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I73" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="C74" t="s">
         <v>61</v>
@@ -4370,19 +4365,19 @@
       <c r="D74" t="s">
         <v>15</v>
       </c>
-      <c r="E74" t="s">
-        <v>30</v>
+      <c r="F74" t="s">
+        <v>300</v>
       </c>
       <c r="I74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>61</v>
@@ -4391,18 +4386,18 @@
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="I75" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
         <v>61</v>
@@ -4411,18 +4406,18 @@
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I76" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>61</v>
@@ -4434,15 +4429,15 @@
         <v>63</v>
       </c>
       <c r="I77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
         <v>61</v>
@@ -4451,18 +4446,18 @@
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
         <v>61</v>
@@ -4470,19 +4465,22 @@
       <c r="D79" t="s">
         <v>15</v>
       </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
       <c r="F79" t="s">
         <v>68</v>
       </c>
       <c r="I79" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
         <v>61</v>
@@ -4490,22 +4488,19 @@
       <c r="D80" t="s">
         <v>15</v>
       </c>
-      <c r="E80" t="s">
-        <v>16</v>
-      </c>
       <c r="F80" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I80" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
         <v>61</v>
@@ -4514,18 +4509,18 @@
         <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
         <v>61</v>
@@ -4537,15 +4532,15 @@
         <v>91</v>
       </c>
       <c r="I82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
         <v>61</v>
@@ -4553,42 +4548,48 @@
       <c r="D83" t="s">
         <v>15</v>
       </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
       <c r="F83" t="s">
         <v>91</v>
       </c>
       <c r="I83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
         <v>61</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
-      </c>
-      <c r="F84" t="s">
-        <v>91</v>
+        <v>40</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
         <v>61</v>
@@ -4596,25 +4597,19 @@
       <c r="D85" t="s">
         <v>26</v>
       </c>
-      <c r="E85" t="s">
-        <v>40</v>
-      </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
+      <c r="F85" t="s">
+        <v>68</v>
       </c>
       <c r="I85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
         <v>61</v>
@@ -4622,19 +4617,25 @@
       <c r="D86" t="s">
         <v>26</v>
       </c>
-      <c r="F86" t="s">
-        <v>68</v>
+      <c r="E86" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="C87" t="s">
         <v>61</v>
@@ -4645,22 +4646,19 @@
       <c r="E87" t="s">
         <v>40</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
+      <c r="F87" t="s">
+        <v>206</v>
       </c>
       <c r="I87" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
         <v>61</v>
@@ -4672,18 +4670,24 @@
         <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>206</v>
+        <v>63</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
         <v>61</v>
@@ -4692,50 +4696,41 @@
         <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="I89" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>337</v>
+        <v>117</v>
       </c>
       <c r="I90" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
@@ -4747,35 +4742,38 @@
         <v>117</v>
       </c>
       <c r="I91" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C92" t="s">
         <v>106</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
-      </c>
-      <c r="F92" t="s">
-        <v>117</v>
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
@@ -4784,21 +4782,18 @@
         <v>11</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>3</v>
-      </c>
-      <c r="I93" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C94" t="s">
         <v>106</v>
@@ -4810,15 +4805,18 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>299</v>
       </c>
       <c r="C95" t="s">
         <v>106</v>
@@ -4826,22 +4824,22 @@
       <c r="D95" t="s">
         <v>11</v>
       </c>
+      <c r="F95" t="s">
+        <v>337</v>
+      </c>
       <c r="G95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="C96" t="s">
         <v>106</v>
@@ -4850,21 +4848,24 @@
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G96">
         <v>3</v>
       </c>
       <c r="H96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="C97" t="s">
         <v>106</v>
@@ -4873,24 +4874,24 @@
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>327</v>
+        <v>119</v>
       </c>
       <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
         <v>3</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
       <c r="I97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>331</v>
+        <v>132</v>
       </c>
       <c r="C98" t="s">
         <v>106</v>
@@ -4899,24 +4900,21 @@
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>3</v>
-      </c>
-      <c r="I98" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -4925,21 +4923,24 @@
         <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
@@ -4948,24 +4949,24 @@
         <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="G100">
         <v>3</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C101" t="s">
         <v>106</v>
@@ -4974,24 +4975,24 @@
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="G101">
         <v>3</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
@@ -5000,7 +5001,7 @@
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -5009,41 +5010,32 @@
         <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="C103" t="s">
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
-        <v>113</v>
-      </c>
-      <c r="G103">
-        <v>3</v>
-      </c>
-      <c r="H103">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
@@ -5052,15 +5044,15 @@
         <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
@@ -5068,16 +5060,19 @@
       <c r="D105" t="s">
         <v>15</v>
       </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
       <c r="I105" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="C106" t="s">
         <v>106</v>
@@ -5089,15 +5084,15 @@
         <v>16</v>
       </c>
       <c r="I106" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
         <v>106</v>
@@ -5106,18 +5101,18 @@
         <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="C108" t="s">
         <v>106</v>
@@ -5128,16 +5123,22 @@
       <c r="E108" t="s">
         <v>19</v>
       </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
       <c r="I108" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="C109" t="s">
         <v>106</v>
@@ -5145,25 +5146,19 @@
       <c r="D109" t="s">
         <v>15</v>
       </c>
-      <c r="E109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
+      <c r="F109" t="s">
+        <v>119</v>
       </c>
       <c r="I109" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C110" t="s">
         <v>106</v>
@@ -5171,19 +5166,22 @@
       <c r="D110" t="s">
         <v>15</v>
       </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
       <c r="F110" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
       <c r="I110" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C111" t="s">
         <v>106</v>
@@ -5191,22 +5189,19 @@
       <c r="D111" t="s">
         <v>15</v>
       </c>
-      <c r="E111" t="s">
-        <v>16</v>
-      </c>
       <c r="F111" t="s">
-        <v>337</v>
+        <v>119</v>
       </c>
       <c r="I111" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>309</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
         <v>106</v>
@@ -5214,19 +5209,22 @@
       <c r="D112" t="s">
         <v>15</v>
       </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
       <c r="F112" t="s">
         <v>119</v>
       </c>
       <c r="I112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="C113" t="s">
         <v>106</v>
@@ -5235,21 +5233,21 @@
         <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="I113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C114" t="s">
         <v>106</v>
@@ -5258,21 +5256,21 @@
         <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
         <v>327</v>
       </c>
       <c r="I114" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
         <v>106</v>
@@ -5284,18 +5282,18 @@
         <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>327</v>
+        <v>119</v>
       </c>
       <c r="I115" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
         <v>106</v>
@@ -5304,21 +5302,18 @@
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
-      </c>
-      <c r="F116" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="I116" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="C117" t="s">
         <v>106</v>
@@ -5330,15 +5325,15 @@
         <v>30</v>
       </c>
       <c r="I117" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C118" t="s">
         <v>106</v>
@@ -5346,19 +5341,19 @@
       <c r="D118" t="s">
         <v>15</v>
       </c>
-      <c r="E118" t="s">
-        <v>30</v>
+      <c r="F118" t="s">
+        <v>111</v>
       </c>
       <c r="I118" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C119" t="s">
         <v>106</v>
@@ -5367,18 +5362,18 @@
         <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="I119" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C120" t="s">
         <v>106</v>
@@ -5387,18 +5382,18 @@
         <v>15</v>
       </c>
       <c r="F120" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
       <c r="I120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C121" t="s">
         <v>106</v>
@@ -5410,15 +5405,15 @@
         <v>119</v>
       </c>
       <c r="I121" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C122" t="s">
         <v>106</v>
@@ -5427,18 +5422,18 @@
         <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>119</v>
+        <v>332</v>
       </c>
       <c r="I122" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C123" t="s">
         <v>106</v>
@@ -5446,19 +5441,22 @@
       <c r="D123" t="s">
         <v>15</v>
       </c>
+      <c r="E123" t="s">
+        <v>45</v>
+      </c>
       <c r="F123" t="s">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="I123" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C124" t="s">
         <v>106</v>
@@ -5470,18 +5468,18 @@
         <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>111</v>
+        <v>332</v>
       </c>
       <c r="I124" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
         <v>106</v>
@@ -5489,22 +5487,19 @@
       <c r="D125" t="s">
         <v>15</v>
       </c>
-      <c r="E125" t="s">
-        <v>45</v>
-      </c>
       <c r="F125" t="s">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="I125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s">
         <v>106</v>
@@ -5513,38 +5508,47 @@
         <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>111</v>
+        <v>361</v>
       </c>
       <c r="I126" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="C127" t="s">
         <v>106</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="E127" t="s">
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>361</v>
+        <v>327</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C128" t="s">
         <v>106</v>
@@ -5558,22 +5562,16 @@
       <c r="F128" t="s">
         <v>327</v>
       </c>
-      <c r="G128">
-        <v>2</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
       <c r="I128" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C129" t="s">
         <v>106</v>
@@ -5581,22 +5579,19 @@
       <c r="D129" t="s">
         <v>26</v>
       </c>
-      <c r="E129" t="s">
-        <v>40</v>
-      </c>
       <c r="F129" t="s">
-        <v>327</v>
+        <v>119</v>
       </c>
       <c r="I129" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C130" t="s">
         <v>106</v>
@@ -5605,38 +5600,38 @@
         <v>26</v>
       </c>
       <c r="F130" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I130" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>184</v>
+        <v>322</v>
       </c>
       <c r="C131" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="I131" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>322</v>
+        <v>197</v>
       </c>
       <c r="C132" t="s">
         <v>196</v>
@@ -5648,35 +5643,35 @@
         <v>198</v>
       </c>
       <c r="I132" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C133" t="s">
         <v>196</v>
       </c>
       <c r="D133" t="s">
-        <v>42</v>
-      </c>
-      <c r="F133" t="s">
-        <v>198</v>
-      </c>
-      <c r="I133" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C134" t="s">
         <v>196</v>
@@ -5688,15 +5683,18 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C135" t="s">
         <v>196</v>
@@ -5705,21 +5703,21 @@
         <v>11</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C136" t="s">
         <v>196</v>
@@ -5727,22 +5725,25 @@
       <c r="D136" t="s">
         <v>11</v>
       </c>
+      <c r="F136" t="s">
+        <v>327</v>
+      </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C137" t="s">
         <v>196</v>
@@ -5757,18 +5758,18 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C138" t="s">
         <v>196</v>
@@ -5780,21 +5781,18 @@
         <v>327</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="I138" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="C139" t="s">
         <v>196</v>
@@ -5803,21 +5801,24 @@
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I139" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="C140" t="s">
         <v>196</v>
@@ -5826,24 +5827,21 @@
         <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>3</v>
       </c>
-      <c r="I140" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C141" t="s">
         <v>196</v>
@@ -5852,7 +5850,7 @@
         <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -5860,13 +5858,16 @@
       <c r="H141">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I141" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C142" t="s">
         <v>196</v>
@@ -5875,24 +5876,24 @@
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H142">
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C143" t="s">
         <v>196</v>
@@ -5901,50 +5902,41 @@
         <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="G143">
         <v>3</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I143" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C144" t="s">
         <v>196</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" t="s">
-        <v>363</v>
-      </c>
-      <c r="G144">
-        <v>3</v>
-      </c>
-      <c r="H144">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="C145" t="s">
         <v>196</v>
@@ -5952,16 +5944,19 @@
       <c r="D145" t="s">
         <v>15</v>
       </c>
+      <c r="E145" t="s">
+        <v>16</v>
+      </c>
       <c r="I145" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="C146" t="s">
         <v>196</v>
@@ -5973,15 +5968,15 @@
         <v>16</v>
       </c>
       <c r="I146" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C147" t="s">
         <v>196</v>
@@ -5993,15 +5988,15 @@
         <v>16</v>
       </c>
       <c r="I147" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C148" t="s">
         <v>196</v>
@@ -6010,18 +6005,18 @@
         <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I148" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C149" t="s">
         <v>196</v>
@@ -6030,18 +6025,18 @@
         <v>15</v>
       </c>
       <c r="E149" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I149" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C150" t="s">
         <v>196</v>
@@ -6049,19 +6044,19 @@
       <c r="D150" t="s">
         <v>15</v>
       </c>
-      <c r="E150" t="s">
-        <v>30</v>
+      <c r="F150" t="s">
+        <v>206</v>
       </c>
       <c r="I150" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C151" t="s">
         <v>196</v>
@@ -6069,19 +6064,16 @@
       <c r="D151" t="s">
         <v>15</v>
       </c>
-      <c r="F151" t="s">
-        <v>206</v>
-      </c>
       <c r="I151" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C152" t="s">
         <v>196</v>
@@ -6089,16 +6081,22 @@
       <c r="D152" t="s">
         <v>15</v>
       </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" t="s">
+        <v>206</v>
+      </c>
       <c r="I152" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C153" t="s">
         <v>196</v>
@@ -6109,19 +6107,16 @@
       <c r="E153" t="s">
         <v>19</v>
       </c>
-      <c r="F153" t="s">
-        <v>206</v>
-      </c>
       <c r="I153" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C154" t="s">
         <v>196</v>
@@ -6130,18 +6125,18 @@
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C155" t="s">
         <v>196</v>
@@ -6150,18 +6145,21 @@
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="F155" t="s">
+        <v>206</v>
       </c>
       <c r="I155" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="C156" t="s">
         <v>196</v>
@@ -6173,18 +6171,18 @@
         <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="I156" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C157" t="s">
         <v>196</v>
@@ -6193,21 +6191,21 @@
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
+        <v>337</v>
       </c>
       <c r="I157" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
         <v>196</v>
@@ -6215,22 +6213,19 @@
       <c r="D158" t="s">
         <v>15</v>
       </c>
-      <c r="E158" t="s">
-        <v>16</v>
-      </c>
       <c r="F158" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="I158" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C159" t="s">
         <v>196</v>
@@ -6242,15 +6237,15 @@
         <v>346</v>
       </c>
       <c r="I159" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C160" t="s">
         <v>196</v>
@@ -6258,19 +6253,22 @@
       <c r="D160" t="s">
         <v>15</v>
       </c>
+      <c r="E160" t="s">
+        <v>45</v>
+      </c>
       <c r="F160" t="s">
-        <v>346</v>
+        <v>212</v>
       </c>
       <c r="I160" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="C161" t="s">
         <v>196</v>
@@ -6282,18 +6280,18 @@
         <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="I161" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="C162" t="s">
         <v>196</v>
@@ -6302,44 +6300,38 @@
         <v>15</v>
       </c>
       <c r="E162" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F162" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="I162" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C163" t="s">
         <v>196</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" t="s">
-        <v>30</v>
-      </c>
-      <c r="F163" t="s">
-        <v>369</v>
+        <v>26</v>
       </c>
       <c r="I163" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C164" t="s">
         <v>196</v>
@@ -6348,15 +6340,15 @@
         <v>26</v>
       </c>
       <c r="I164" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C165" t="s">
         <v>196</v>
@@ -6365,15 +6357,15 @@
         <v>26</v>
       </c>
       <c r="I165" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C166" t="s">
         <v>196</v>
@@ -6382,52 +6374,55 @@
         <v>26</v>
       </c>
       <c r="I166" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="C167" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="D167" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="F167" t="s">
+        <v>280</v>
       </c>
       <c r="I167" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C168" t="s">
         <v>244</v>
       </c>
       <c r="D168" t="s">
-        <v>42</v>
-      </c>
-      <c r="F168" t="s">
-        <v>280</v>
-      </c>
-      <c r="I168" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C169" t="s">
         <v>244</v>
@@ -6435,19 +6430,25 @@
       <c r="D169" t="s">
         <v>11</v>
       </c>
+      <c r="F169" t="s">
+        <v>327</v>
+      </c>
       <c r="G169">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C170" t="s">
         <v>244</v>
@@ -6455,9 +6456,6 @@
       <c r="D170" t="s">
         <v>11</v>
       </c>
-      <c r="F170" t="s">
-        <v>327</v>
-      </c>
       <c r="G170">
         <v>1</v>
       </c>
@@ -6465,15 +6463,15 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C171" t="s">
         <v>244</v>
@@ -6481,22 +6479,25 @@
       <c r="D171" t="s">
         <v>11</v>
       </c>
+      <c r="F171" t="s">
+        <v>246</v>
+      </c>
       <c r="G171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C172" t="s">
         <v>244</v>
@@ -6504,25 +6505,22 @@
       <c r="D172" t="s">
         <v>11</v>
       </c>
-      <c r="F172" t="s">
-        <v>246</v>
-      </c>
       <c r="G172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C173" t="s">
         <v>244</v>
@@ -6530,22 +6528,25 @@
       <c r="D173" t="s">
         <v>11</v>
       </c>
+      <c r="F173" t="s">
+        <v>328</v>
+      </c>
       <c r="G173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C174" t="s">
         <v>244</v>
@@ -6557,21 +6558,21 @@
         <v>328</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174">
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C175" t="s">
         <v>244</v>
@@ -6580,50 +6581,41 @@
         <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C176" t="s">
         <v>244</v>
       </c>
       <c r="D176" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" t="s">
-        <v>324</v>
-      </c>
-      <c r="G176">
-        <v>4</v>
-      </c>
-      <c r="H176">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C177" t="s">
         <v>244</v>
@@ -6632,15 +6624,15 @@
         <v>15</v>
       </c>
       <c r="I177" t="s">
-        <v>507</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C178" t="s">
         <v>244</v>
@@ -6649,15 +6641,15 @@
         <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C179" t="s">
         <v>244</v>
@@ -6666,15 +6658,15 @@
         <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="C180" t="s">
         <v>244</v>
@@ -6682,16 +6674,22 @@
       <c r="D180" t="s">
         <v>15</v>
       </c>
+      <c r="E180" t="s">
+        <v>45</v>
+      </c>
+      <c r="F180" t="s">
+        <v>324</v>
+      </c>
       <c r="I180" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="C181" t="s">
         <v>244</v>
@@ -6699,22 +6697,19 @@
       <c r="D181" t="s">
         <v>15</v>
       </c>
-      <c r="E181" t="s">
-        <v>45</v>
-      </c>
       <c r="F181" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="I181" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C182" t="s">
         <v>244</v>
@@ -6723,18 +6718,18 @@
         <v>15</v>
       </c>
       <c r="F182" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="I182" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C183" t="s">
         <v>244</v>
@@ -6743,18 +6738,18 @@
         <v>15</v>
       </c>
       <c r="F183" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="I183" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C184" t="s">
         <v>244</v>
@@ -6762,19 +6757,22 @@
       <c r="D184" t="s">
         <v>15</v>
       </c>
+      <c r="E184" t="s">
+        <v>16</v>
+      </c>
       <c r="F184" t="s">
         <v>246</v>
       </c>
       <c r="I184" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C185" t="s">
         <v>244</v>
@@ -6783,21 +6781,21 @@
         <v>15</v>
       </c>
       <c r="E185" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F185" t="s">
         <v>246</v>
       </c>
       <c r="I185" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C186" t="s">
         <v>244</v>
@@ -6806,21 +6804,18 @@
         <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="I186" t="s">
-        <v>270</v>
+        <v>499</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C187" t="s">
         <v>244</v>
@@ -6829,18 +6824,21 @@
         <v>15</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="F187" t="s">
+        <v>248</v>
       </c>
       <c r="I187" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C188" t="s">
         <v>244</v>
@@ -6849,21 +6847,21 @@
         <v>15</v>
       </c>
       <c r="E188" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F188" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="I188" t="s">
-        <v>500</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C189" t="s">
         <v>244</v>
@@ -6872,21 +6870,21 @@
         <v>15</v>
       </c>
       <c r="E189" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F189" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I189" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C190" t="s">
         <v>244</v>
@@ -6894,22 +6892,19 @@
       <c r="D190" t="s">
         <v>15</v>
       </c>
-      <c r="E190" t="s">
-        <v>19</v>
-      </c>
       <c r="F190" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="I190" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C191" t="s">
         <v>244</v>
@@ -6918,56 +6913,62 @@
         <v>15</v>
       </c>
       <c r="F191" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="I191" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C192" t="s">
         <v>244</v>
       </c>
       <c r="D192" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="E192" t="s">
+        <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I192" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="C193" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E193" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F193" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="I193" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
       <c r="B194" t="s">
         <v>379</v>
       </c>
@@ -6984,7 +6985,10 @@
         <v>378</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
       <c r="B195" t="s">
         <v>380</v>
       </c>
@@ -7001,7 +7005,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
       <c r="B196" t="s">
         <v>382</v>
       </c>
@@ -7015,7 +7022,10 @@
         <v>383</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
       <c r="B197" t="s">
         <v>387</v>
       </c>
@@ -7032,7 +7042,10 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
       <c r="B198" t="s">
         <v>385</v>
       </c>
@@ -7049,7 +7062,10 @@
         <v>386</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
       <c r="B199" t="s">
         <v>391</v>
       </c>
@@ -7069,7 +7085,10 @@
         <v>389</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
       <c r="B200" t="s">
         <v>390</v>
       </c>
@@ -7089,7 +7108,10 @@
         <v>392</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
       <c r="B201" t="s">
         <v>426</v>
       </c>
@@ -7109,7 +7131,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
       <c r="B202" t="s">
         <v>424</v>
       </c>
@@ -7132,7 +7157,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
       <c r="B203" t="s">
         <v>433</v>
       </c>
@@ -7155,7 +7183,10 @@
         <v>429</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
       <c r="B204" t="s">
         <v>427</v>
       </c>
@@ -7178,7 +7209,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
       <c r="B205" t="s">
         <v>432</v>
       </c>
@@ -7201,7 +7235,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
       <c r="B206" t="s">
         <v>435</v>
       </c>
@@ -7221,7 +7258,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
       <c r="B207" t="s">
         <v>440</v>
       </c>
@@ -7244,7 +7284,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
       <c r="B208" t="s">
         <v>442</v>
       </c>
@@ -7264,7 +7307,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="209" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
       <c r="B209" t="s">
         <v>441</v>
       </c>
@@ -7287,7 +7333,10 @@
         <v>438</v>
       </c>
     </row>
-    <row r="210" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
       <c r="B210" t="s">
         <v>443</v>
       </c>
@@ -7307,7 +7356,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="211" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
       <c r="B211" t="s">
         <v>444</v>
       </c>
@@ -7324,7 +7376,10 @@
         <v>445</v>
       </c>
     </row>
-    <row r="212" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
       <c r="B212" t="s">
         <v>446</v>
       </c>
@@ -7344,7 +7399,10 @@
         <v>448</v>
       </c>
     </row>
-    <row r="213" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
       <c r="B213" t="s">
         <v>447</v>
       </c>
@@ -7361,7 +7419,10 @@
         <v>449</v>
       </c>
     </row>
-    <row r="214" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
       <c r="B214" t="s">
         <v>450</v>
       </c>
@@ -7375,7 +7436,10 @@
         <v>451</v>
       </c>
     </row>
-    <row r="215" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
       <c r="B215" t="s">
         <v>453</v>
       </c>
@@ -7395,7 +7459,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="216" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
       <c r="B216" t="s">
         <v>454</v>
       </c>
@@ -7415,7 +7482,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="217" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
       <c r="B217" t="s">
         <v>456</v>
       </c>
@@ -7438,7 +7508,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="218" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
       <c r="B218" t="s">
         <v>460</v>
       </c>
@@ -7458,7 +7531,10 @@
         <v>458</v>
       </c>
     </row>
-    <row r="219" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
       <c r="B219" t="s">
         <v>459</v>
       </c>
@@ -7481,7 +7557,10 @@
         <v>429</v>
       </c>
     </row>
-    <row r="220" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
       <c r="B220" t="s">
         <v>467</v>
       </c>
@@ -7498,7 +7577,10 @@
         <v>468</v>
       </c>
     </row>
-    <row r="221" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
       <c r="B221" t="s">
         <v>462</v>
       </c>
@@ -7518,7 +7600,10 @@
         <v>463</v>
       </c>
     </row>
-    <row r="222" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
       <c r="B222" t="s">
         <v>461</v>
       </c>
@@ -7535,7 +7620,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="223" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
       <c r="B223" t="s">
         <v>464</v>
       </c>
@@ -7555,7 +7643,10 @@
         <v>465</v>
       </c>
     </row>
-    <row r="224" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
       <c r="B224" t="s">
         <v>475</v>
       </c>
@@ -7575,7 +7666,10 @@
         <v>476</v>
       </c>
     </row>
-    <row r="225" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
       <c r="B225" t="s">
         <v>473</v>
       </c>
@@ -7592,7 +7686,10 @@
         <v>474</v>
       </c>
     </row>
-    <row r="226" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
       <c r="B226" t="s">
         <v>469</v>
       </c>
@@ -7609,7 +7706,10 @@
         <v>472</v>
       </c>
     </row>
-    <row r="227" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
       <c r="B227" t="s">
         <v>470</v>
       </c>
@@ -7626,7 +7726,10 @@
         <v>471</v>
       </c>
     </row>
-    <row r="228" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
       <c r="B228" t="s">
         <v>478</v>
       </c>
@@ -7643,7 +7746,10 @@
         <v>477</v>
       </c>
     </row>
-    <row r="229" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
       <c r="B229" t="s">
         <v>479</v>
       </c>
@@ -7663,7 +7769,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="230" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
       <c r="B230" t="s">
         <v>481</v>
       </c>
@@ -7680,7 +7789,10 @@
         <v>483</v>
       </c>
     </row>
-    <row r="231" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
       <c r="B231" t="s">
         <v>494</v>
       </c>
@@ -7700,7 +7812,10 @@
         <v>487</v>
       </c>
     </row>
-    <row r="232" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
       <c r="B232" t="s">
         <v>491</v>
       </c>
@@ -7720,7 +7835,10 @@
         <v>486</v>
       </c>
     </row>
-    <row r="233" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
       <c r="B233" t="s">
         <v>492</v>
       </c>
@@ -7740,7 +7858,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="234" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
       <c r="B234" t="s">
         <v>496</v>
       </c>
@@ -7760,7 +7881,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
       <c r="B235" t="s">
         <v>489</v>
       </c>
@@ -7783,7 +7907,10 @@
         <v>488</v>
       </c>
     </row>
-    <row r="236" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
       <c r="B236" t="s">
         <v>490</v>
       </c>
@@ -7806,7 +7933,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="237" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
       <c r="B237" t="s">
         <v>495</v>
       </c>
@@ -7826,7 +7956,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
       <c r="B238" t="s">
         <v>497</v>
       </c>
@@ -7843,7 +7976,10 @@
         <v>498</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
       <c r="B239" t="s">
         <v>501</v>
       </c>
@@ -7860,7 +7996,10 @@
         <v>502</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
       <c r="B240" t="s">
         <v>503</v>
       </c>
@@ -7874,7 +8013,10 @@
         <v>504</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
       <c r="B241" t="s">
         <v>505</v>
       </c>
@@ -7888,7 +8030,10 @@
         <v>506</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
       <c r="B242" t="s">
         <v>508</v>
       </c>
@@ -7905,7 +8050,10 @@
         <v>513</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
       <c r="B243" t="s">
         <v>509</v>
       </c>
@@ -7925,7 +8073,10 @@
         <v>512</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
       <c r="B244" t="s">
         <v>510</v>
       </c>
@@ -7945,7 +8096,10 @@
         <v>511</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
       <c r="B245" t="s">
         <v>514</v>
       </c>
@@ -7962,15 +8116,21 @@
         <v>515</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
       <c r="C246" t="s">
         <v>244</v>
       </c>
       <c r="D246" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
       <c r="C247" t="s">
         <v>244</v>
       </c>
@@ -7978,7 +8138,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
       <c r="C248" t="s">
         <v>244</v>
       </c>
@@ -7986,7 +8149,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
       <c r="C249" t="s">
         <v>244</v>
       </c>
@@ -7994,7 +8160,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
       <c r="C250" t="s">
         <v>244</v>
       </c>
@@ -8002,12 +8171,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>517</v>
+      </c>
       <c r="C251" t="s">
         <v>244</v>
       </c>
       <c r="D251" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E251" t="s">
+        <v>45</v>
+      </c>
+      <c r="I251" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/design/cards.xlsx
+++ b/design/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\git\hexal-ccg\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CB0D2E6-5396-4D61-9457-43D6608EF0FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CBB20A-860F-41D2-8CD3-574303CF6D8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="468" windowWidth="30588" windowHeight="19836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cards" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="528">
   <si>
     <t>ID</t>
   </si>
@@ -1357,9 +1357,6 @@
     <t>When this is attacked and destroyed by an enemy creature, destroy that creature.</t>
   </si>
   <si>
-    <t>Poisonous Frog</t>
-  </si>
-  <si>
     <t>Gifted Wanderer</t>
   </si>
   <si>
@@ -1525,9 +1522,6 @@
     <t>Spirit Militia</t>
   </si>
   <si>
-    <t>Guardian Stones</t>
-  </si>
-  <si>
     <t>Manifest Dreams</t>
   </si>
   <si>
@@ -1589,6 +1583,42 @@
   </si>
   <si>
     <t>Seal World Line</t>
+  </si>
+  <si>
+    <t>Poisonous Bee</t>
+  </si>
+  <si>
+    <t>Haunted Wine Glass</t>
+  </si>
+  <si>
+    <t>At the start of your turn you may destroy this to summon a [Spirit] creature with cost 0 from your hand. Give it &lt;ready&gt;.</t>
+  </si>
+  <si>
+    <t>Guardian Stone</t>
+  </si>
+  <si>
+    <t>Reveal the top card of your opponent's deck. If it's a spell, draw a card.</t>
+  </si>
+  <si>
+    <t>Spell Scroll</t>
+  </si>
+  <si>
+    <t>&lt;Search&gt; for a spell. Replace it with this card.</t>
+  </si>
+  <si>
+    <t>Peek</t>
+  </si>
+  <si>
+    <t>Smudge Stick</t>
+  </si>
+  <si>
+    <t>Destroy all tokens.</t>
+  </si>
+  <si>
+    <t>Equip to a friendly creature. It gains +1 / +0 and "can attack creatures with &lt;ethereal&gt;".</t>
+  </si>
+  <si>
+    <t>Ethereal Dagger</t>
   </si>
 </sst>
 </file>
@@ -2647,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E251" sqref="E251"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4159,7 +4189,7 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -6088,7 +6118,7 @@
         <v>206</v>
       </c>
       <c r="I152" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -6607,7 +6637,7 @@
         <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -6807,7 +6837,7 @@
         <v>45</v>
       </c>
       <c r="I186" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -6830,7 +6860,7 @@
         <v>248</v>
       </c>
       <c r="I187" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -6939,7 +6969,7 @@
         <v>246</v>
       </c>
       <c r="I192" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -7263,7 +7293,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="C207" t="s">
         <v>106</v>
@@ -7289,7 +7319,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C208" t="s">
         <v>106</v>
@@ -7312,7 +7342,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C209" t="s">
         <v>106</v>
@@ -7338,7 +7368,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C210" t="s">
         <v>106</v>
@@ -7361,7 +7391,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C211" t="s">
         <v>106</v>
@@ -7373,7 +7403,7 @@
         <v>16</v>
       </c>
       <c r="I211" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -7381,7 +7411,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C212" t="s">
         <v>106</v>
@@ -7396,7 +7426,7 @@
         <v>119</v>
       </c>
       <c r="I212" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -7404,7 +7434,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C213" t="s">
         <v>106</v>
@@ -7416,7 +7446,7 @@
         <v>40</v>
       </c>
       <c r="I213" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -7424,7 +7454,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C214" t="s">
         <v>106</v>
@@ -7433,7 +7463,7 @@
         <v>26</v>
       </c>
       <c r="I214" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -7441,7 +7471,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C215" t="s">
         <v>106</v>
@@ -7456,7 +7486,7 @@
         <v>111</v>
       </c>
       <c r="I215" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -7464,7 +7494,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C216" t="s">
         <v>196</v>
@@ -7479,7 +7509,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -7487,7 +7517,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C217" t="s">
         <v>196</v>
@@ -7505,7 +7535,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -7513,7 +7543,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C218" t="s">
         <v>196</v>
@@ -7528,7 +7558,7 @@
         <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -7536,7 +7566,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C219" t="s">
         <v>196</v>
@@ -7562,7 +7592,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C220" t="s">
         <v>196</v>
@@ -7574,7 +7604,7 @@
         <v>206</v>
       </c>
       <c r="I220" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -7582,7 +7612,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C221" t="s">
         <v>196</v>
@@ -7597,7 +7627,7 @@
         <v>206</v>
       </c>
       <c r="I221" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -7605,7 +7635,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C222" t="s">
         <v>196</v>
@@ -7625,7 +7655,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C223" t="s">
         <v>196</v>
@@ -7640,7 +7670,7 @@
         <v>206</v>
       </c>
       <c r="I223" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -7648,7 +7678,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C224" t="s">
         <v>196</v>
@@ -7663,7 +7693,7 @@
         <v>346</v>
       </c>
       <c r="I224" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -7671,7 +7701,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C225" t="s">
         <v>196</v>
@@ -7683,7 +7713,7 @@
         <v>40</v>
       </c>
       <c r="I225" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -7691,7 +7721,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C226" t="s">
         <v>196</v>
@@ -7703,7 +7733,7 @@
         <v>206</v>
       </c>
       <c r="I226" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -7711,7 +7741,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C227" t="s">
         <v>196</v>
@@ -7723,7 +7753,7 @@
         <v>206</v>
       </c>
       <c r="I227" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -7731,7 +7761,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C228" t="s">
         <v>244</v>
@@ -7743,7 +7773,7 @@
         <v>280</v>
       </c>
       <c r="I228" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -7751,7 +7781,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C229" t="s">
         <v>244</v>
@@ -7766,7 +7796,7 @@
         <v>328</v>
       </c>
       <c r="I229" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -7774,7 +7804,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C230" t="s">
         <v>244</v>
@@ -7786,7 +7816,7 @@
         <v>40</v>
       </c>
       <c r="I230" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -7794,7 +7824,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C231" t="s">
         <v>244</v>
@@ -7809,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -7817,7 +7847,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C232" t="s">
         <v>244</v>
@@ -7832,7 +7862,7 @@
         <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -7840,7 +7870,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C233" t="s">
         <v>244</v>
@@ -7855,7 +7885,7 @@
         <v>2</v>
       </c>
       <c r="I233" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -7863,7 +7893,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="C234" t="s">
         <v>244</v>
@@ -7886,7 +7916,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C235" t="s">
         <v>244</v>
@@ -7904,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -7912,7 +7942,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C236" t="s">
         <v>244</v>
@@ -7930,7 +7960,7 @@
         <v>2</v>
       </c>
       <c r="I236" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -7938,7 +7968,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -7961,7 +7991,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C238" t="s">
         <v>244</v>
@@ -7973,7 +8003,7 @@
         <v>324</v>
       </c>
       <c r="I238" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -7981,7 +8011,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C239" t="s">
         <v>244</v>
@@ -7993,7 +8023,7 @@
         <v>328</v>
       </c>
       <c r="I239" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -8001,7 +8031,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C240" t="s">
         <v>244</v>
@@ -8010,7 +8040,7 @@
         <v>15</v>
       </c>
       <c r="I240" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -8018,7 +8048,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C241" t="s">
         <v>244</v>
@@ -8027,7 +8057,7 @@
         <v>15</v>
       </c>
       <c r="I241" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -8035,7 +8065,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C242" t="s">
         <v>244</v>
@@ -8047,7 +8077,7 @@
         <v>371</v>
       </c>
       <c r="I242" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -8055,7 +8085,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C243" t="s">
         <v>244</v>
@@ -8070,7 +8100,7 @@
         <v>328</v>
       </c>
       <c r="I243" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -8078,7 +8108,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C244" t="s">
         <v>244</v>
@@ -8093,7 +8123,7 @@
         <v>248</v>
       </c>
       <c r="I244" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -8101,7 +8131,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C245" t="s">
         <v>244</v>
@@ -8113,62 +8143,101 @@
         <v>45</v>
       </c>
       <c r="I245" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
+      <c r="B246" t="s">
+        <v>515</v>
+      </c>
       <c r="C246" t="s">
         <v>244</v>
       </c>
       <c r="D246" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E246" t="s">
+        <v>45</v>
+      </c>
+      <c r="I246" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
+      <c r="B247" t="s">
+        <v>517</v>
+      </c>
       <c r="C247" t="s">
         <v>244</v>
       </c>
       <c r="D247" t="s">
         <v>26</v>
+      </c>
+      <c r="E247" t="s">
+        <v>45</v>
+      </c>
+      <c r="I247" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
+      <c r="B248" t="s">
+        <v>523</v>
+      </c>
       <c r="C248" t="s">
         <v>244</v>
       </c>
       <c r="D248" t="s">
         <v>26</v>
+      </c>
+      <c r="I248" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
+      <c r="B249" t="s">
+        <v>521</v>
+      </c>
       <c r="C249" t="s">
         <v>244</v>
       </c>
       <c r="D249" t="s">
         <v>26</v>
+      </c>
+      <c r="I249" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
+      <c r="B250" t="s">
+        <v>524</v>
+      </c>
       <c r="C250" t="s">
         <v>244</v>
       </c>
       <c r="D250" t="s">
         <v>26</v>
+      </c>
+      <c r="F250" t="s">
+        <v>335</v>
+      </c>
+      <c r="I250" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -8176,19 +8245,25 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C251" t="s">
         <v>244</v>
       </c>
       <c r="D251" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E251" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
